--- a/data/nzd0476/nzd0476.xlsx
+++ b/data/nzd0476/nzd0476.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O585"/>
+  <dimension ref="A1:O591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26755,6 +26755,304 @@
         </is>
       </c>
     </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>327.24</v>
+      </c>
+      <c r="C586" t="n">
+        <v>315.27</v>
+      </c>
+      <c r="D586" t="n">
+        <v>315.05</v>
+      </c>
+      <c r="E586" t="n">
+        <v>315.0566666666667</v>
+      </c>
+      <c r="F586" t="n">
+        <v>317.2418181818182</v>
+      </c>
+      <c r="G586" t="n">
+        <v>322.4766666666667</v>
+      </c>
+      <c r="H586" t="n">
+        <v>324.5766666666667</v>
+      </c>
+      <c r="I586" t="n">
+        <v>324.1366666666667</v>
+      </c>
+      <c r="J586" t="n">
+        <v>317.6118181818182</v>
+      </c>
+      <c r="K586" t="n">
+        <v>317.63</v>
+      </c>
+      <c r="L586" t="n">
+        <v>329.6871428571428</v>
+      </c>
+      <c r="M586" t="n">
+        <v>337.34</v>
+      </c>
+      <c r="N586" t="n">
+        <v>309.42</v>
+      </c>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>354.9</v>
+      </c>
+      <c r="C587" t="n">
+        <v>308.84</v>
+      </c>
+      <c r="D587" t="n">
+        <v>306.74</v>
+      </c>
+      <c r="E587" t="n">
+        <v>308.45</v>
+      </c>
+      <c r="F587" t="n">
+        <v>310.66</v>
+      </c>
+      <c r="G587" t="n">
+        <v>314.96</v>
+      </c>
+      <c r="H587" t="n">
+        <v>317.01</v>
+      </c>
+      <c r="I587" t="n">
+        <v>330.96</v>
+      </c>
+      <c r="J587" t="n">
+        <v>331.85</v>
+      </c>
+      <c r="K587" t="n">
+        <v>313.55</v>
+      </c>
+      <c r="L587" t="n">
+        <v>328.63</v>
+      </c>
+      <c r="M587" t="n">
+        <v>341.66</v>
+      </c>
+      <c r="N587" t="n">
+        <v>296.61</v>
+      </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>336.6</v>
+      </c>
+      <c r="C588" t="n">
+        <v>304.3200000000001</v>
+      </c>
+      <c r="D588" t="n">
+        <v>304.78</v>
+      </c>
+      <c r="E588" t="n">
+        <v>307.13</v>
+      </c>
+      <c r="F588" t="n">
+        <v>304.5454545454546</v>
+      </c>
+      <c r="G588" t="n">
+        <v>310.26</v>
+      </c>
+      <c r="H588" t="n">
+        <v>309.76</v>
+      </c>
+      <c r="I588" t="n">
+        <v>309.2</v>
+      </c>
+      <c r="J588" t="n">
+        <v>307.1954545454545</v>
+      </c>
+      <c r="K588" t="n">
+        <v>313.76</v>
+      </c>
+      <c r="L588" t="n">
+        <v>317.0871428571429</v>
+      </c>
+      <c r="M588" t="n">
+        <v>331.19</v>
+      </c>
+      <c r="N588" t="n">
+        <v>299.27</v>
+      </c>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>319.62</v>
+      </c>
+      <c r="C589" t="n">
+        <v>303.76</v>
+      </c>
+      <c r="D589" t="n">
+        <v>299.05</v>
+      </c>
+      <c r="E589" t="n">
+        <v>303.26</v>
+      </c>
+      <c r="F589" t="n">
+        <v>304.7818181818182</v>
+      </c>
+      <c r="G589" t="n">
+        <v>318.47</v>
+      </c>
+      <c r="H589" t="inlineStr"/>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>322.4818181818182</v>
+      </c>
+      <c r="K589" t="n">
+        <v>305.59</v>
+      </c>
+      <c r="L589" t="n">
+        <v>306.6114285714286</v>
+      </c>
+      <c r="M589" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="N589" t="n">
+        <v>279.35</v>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:25+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>343.03</v>
+      </c>
+      <c r="C590" t="n">
+        <v>307.78</v>
+      </c>
+      <c r="D590" t="n">
+        <v>306.05</v>
+      </c>
+      <c r="E590" t="n">
+        <v>304.6133333333333</v>
+      </c>
+      <c r="F590" t="n">
+        <v>304.569090909091</v>
+      </c>
+      <c r="G590" t="n">
+        <v>308.5133333333333</v>
+      </c>
+      <c r="H590" t="n">
+        <v>308.2033333333333</v>
+      </c>
+      <c r="I590" t="n">
+        <v>310.2733333333333</v>
+      </c>
+      <c r="J590" t="n">
+        <v>306.6590909090909</v>
+      </c>
+      <c r="K590" t="n">
+        <v>313.04</v>
+      </c>
+      <c r="L590" t="n">
+        <v>314.2271428571428</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+      <c r="N590" t="n">
+        <v>279.24</v>
+      </c>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>356.86</v>
+      </c>
+      <c r="C591" t="n">
+        <v>315.24</v>
+      </c>
+      <c r="D591" t="n">
+        <v>316.82</v>
+      </c>
+      <c r="E591" t="n">
+        <v>317.1933333333333</v>
+      </c>
+      <c r="F591" t="n">
+        <v>319.129090909091</v>
+      </c>
+      <c r="G591" t="n">
+        <v>324.7933333333333</v>
+      </c>
+      <c r="H591" t="n">
+        <v>319.0733333333333</v>
+      </c>
+      <c r="I591" t="n">
+        <v>316.9233333333333</v>
+      </c>
+      <c r="J591" t="n">
+        <v>325.0490909090909</v>
+      </c>
+      <c r="K591" t="n">
+        <v>327.02</v>
+      </c>
+      <c r="L591" t="n">
+        <v>358.7728571428572</v>
+      </c>
+      <c r="M591" t="n">
+        <v>368.26</v>
+      </c>
+      <c r="N591" t="inlineStr"/>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26766,7 +27064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B652"/>
+  <dimension ref="A1:B662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33294,6 +33592,106 @@
       </c>
       <c r="B652" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-12-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -33462,28 +33860,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3233303272345789</v>
+        <v>0.3622577835130183</v>
       </c>
       <c r="J2" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K2" t="n">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01020573551912696</v>
+        <v>0.0129742446125124</v>
       </c>
       <c r="M2" t="n">
-        <v>16.91665432625999</v>
+        <v>16.93899675939836</v>
       </c>
       <c r="N2" t="n">
-        <v>445.3960065257234</v>
+        <v>444.1949307245364</v>
       </c>
       <c r="O2" t="n">
-        <v>21.10440727728982</v>
+        <v>21.07593249952505</v>
       </c>
       <c r="P2" t="n">
-        <v>317.9702176975754</v>
+        <v>317.5262996346898</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -33539,28 +33937,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05011628009991571</v>
+        <v>-0.04669152773028855</v>
       </c>
       <c r="J3" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K3" t="n">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001130309510177341</v>
+        <v>0.001002797939023692</v>
       </c>
       <c r="M3" t="n">
-        <v>7.263137373274645</v>
+        <v>7.21832376528024</v>
       </c>
       <c r="N3" t="n">
-        <v>96.02341017133905</v>
+        <v>95.06065880053444</v>
       </c>
       <c r="O3" t="n">
-        <v>9.799153543614828</v>
+        <v>9.749905579057391</v>
       </c>
       <c r="P3" t="n">
-        <v>309.2123933775903</v>
+        <v>309.1728663254785</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -33616,28 +34014,28 @@
         <v>0.0519</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1905795210775746</v>
+        <v>-0.1926802487883952</v>
       </c>
       <c r="J4" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K4" t="n">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0198010569396383</v>
+        <v>0.02058672241936921</v>
       </c>
       <c r="M4" t="n">
-        <v>6.461699934505025</v>
+        <v>6.449486925009636</v>
       </c>
       <c r="N4" t="n">
-        <v>76.74060372759594</v>
+        <v>76.23901655276391</v>
       </c>
       <c r="O4" t="n">
-        <v>8.760171443961353</v>
+        <v>8.731495665277738</v>
       </c>
       <c r="P4" t="n">
-        <v>313.7184193125002</v>
+        <v>313.7427406866409</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -33693,28 +34091,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2244401775133082</v>
+        <v>-0.2203516078001539</v>
       </c>
       <c r="J5" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K5" t="n">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03133144569743229</v>
+        <v>0.03081138106420578</v>
       </c>
       <c r="M5" t="n">
-        <v>6.058708638275427</v>
+        <v>6.03494981080098</v>
       </c>
       <c r="N5" t="n">
-        <v>68.1573906670359</v>
+        <v>67.63552667886002</v>
       </c>
       <c r="O5" t="n">
-        <v>8.255748946463664</v>
+        <v>8.224082117711376</v>
       </c>
       <c r="P5" t="n">
-        <v>313.4771952397579</v>
+        <v>313.4303377788052</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33770,28 +34168,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2696441398316911</v>
+        <v>-0.2627519461653638</v>
       </c>
       <c r="J6" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K6" t="n">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03548522168513557</v>
+        <v>0.03433449031902913</v>
       </c>
       <c r="M6" t="n">
-        <v>6.720565183423095</v>
+        <v>6.702507245699168</v>
       </c>
       <c r="N6" t="n">
-        <v>87.10086433501374</v>
+        <v>86.53190125109293</v>
       </c>
       <c r="O6" t="n">
-        <v>9.332784382755971</v>
+        <v>9.30225248265671</v>
       </c>
       <c r="P6" t="n">
-        <v>314.3918056364105</v>
+        <v>314.3128506943309</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33847,28 +34245,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2412896984830077</v>
+        <v>-0.2296739699445171</v>
       </c>
       <c r="J7" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K7" t="n">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03153178965399217</v>
+        <v>0.02908024675285392</v>
       </c>
       <c r="M7" t="n">
-        <v>6.393842669211317</v>
+        <v>6.396733426532504</v>
       </c>
       <c r="N7" t="n">
-        <v>77.50250518057169</v>
+        <v>77.19751416529411</v>
       </c>
       <c r="O7" t="n">
-        <v>8.80355071437495</v>
+        <v>8.786211593473841</v>
       </c>
       <c r="P7" t="n">
-        <v>318.3312523913906</v>
+        <v>318.19717960811</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33924,28 +34322,28 @@
         <v>0.0641</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2648338022024769</v>
+        <v>-0.2587004321479709</v>
       </c>
       <c r="J8" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K8" t="n">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05283074969193424</v>
+        <v>0.05109876822744208</v>
       </c>
       <c r="M8" t="n">
-        <v>5.515894057937985</v>
+        <v>5.520207654977201</v>
       </c>
       <c r="N8" t="n">
-        <v>54.49607337583745</v>
+        <v>54.37638565327374</v>
       </c>
       <c r="O8" t="n">
-        <v>7.382145580780526</v>
+        <v>7.374034557369103</v>
       </c>
       <c r="P8" t="n">
-        <v>319.7317257062674</v>
+        <v>319.6610145286207</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -34001,28 +34399,28 @@
         <v>0.063</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2347300336949165</v>
+        <v>-0.2209043149173644</v>
       </c>
       <c r="J9" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K9" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03571798405917503</v>
+        <v>0.03182083854780271</v>
       </c>
       <c r="M9" t="n">
-        <v>5.852029089819369</v>
+        <v>5.874725713510426</v>
       </c>
       <c r="N9" t="n">
-        <v>64.37614266204284</v>
+        <v>64.83846352029278</v>
       </c>
       <c r="O9" t="n">
-        <v>8.023474475689621</v>
+        <v>8.052233449192391</v>
       </c>
       <c r="P9" t="n">
-        <v>318.0055240668685</v>
+        <v>317.8454497287802</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -34078,28 +34476,28 @@
         <v>0.0619</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2583594437173201</v>
+        <v>-0.2464893512634891</v>
       </c>
       <c r="J10" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K10" t="n">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03478118044500478</v>
+        <v>0.0319827786917658</v>
       </c>
       <c r="M10" t="n">
-        <v>6.627296078229016</v>
+        <v>6.65651583242474</v>
       </c>
       <c r="N10" t="n">
-        <v>80.29154090446671</v>
+        <v>80.59630003928686</v>
       </c>
       <c r="O10" t="n">
-        <v>8.960554720800868</v>
+        <v>8.977544209820794</v>
       </c>
       <c r="P10" t="n">
-        <v>320.5229112125681</v>
+        <v>320.3858192919016</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -34155,28 +34553,28 @@
         <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1957189413836882</v>
+        <v>-0.2132924231014996</v>
       </c>
       <c r="J11" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K11" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01418627165035069</v>
+        <v>0.01703314113971632</v>
       </c>
       <c r="M11" t="n">
-        <v>8.026595699381421</v>
+        <v>8.02547954508905</v>
       </c>
       <c r="N11" t="n">
-        <v>115.6727538188529</v>
+        <v>115.3132371546112</v>
       </c>
       <c r="O11" t="n">
-        <v>10.75512686205295</v>
+        <v>10.73840012080995</v>
       </c>
       <c r="P11" t="n">
-        <v>326.9582957172334</v>
+        <v>327.1607196807578</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -34232,28 +34630,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1341183265700192</v>
+        <v>-0.149477432825782</v>
       </c>
       <c r="J12" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K12" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004696406809631459</v>
+        <v>0.005818362323312121</v>
       </c>
       <c r="M12" t="n">
-        <v>9.578760964635507</v>
+        <v>9.642260907415395</v>
       </c>
       <c r="N12" t="n">
-        <v>163.984438480819</v>
+        <v>165.9482726037092</v>
       </c>
       <c r="O12" t="n">
-        <v>12.80564088520442</v>
+        <v>12.88209115802668</v>
       </c>
       <c r="P12" t="n">
-        <v>335.2018041299736</v>
+        <v>335.3799067757417</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -34309,28 +34707,28 @@
         <v>0.0317</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0383313806800673</v>
+        <v>0.03296505503787352</v>
       </c>
       <c r="J13" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K13" t="n">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000211555372113037</v>
+        <v>0.0001578958394206076</v>
       </c>
       <c r="M13" t="n">
-        <v>13.47361948372158</v>
+        <v>13.47535897566497</v>
       </c>
       <c r="N13" t="n">
-        <v>300.9140973797698</v>
+        <v>300.9192413148192</v>
       </c>
       <c r="O13" t="n">
-        <v>17.34687572388094</v>
+        <v>17.34702399014941</v>
       </c>
       <c r="P13" t="n">
-        <v>340.2245976072839</v>
+        <v>340.2859307664629</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -34386,28 +34784,28 @@
         <v>0.0312</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3880225880499235</v>
+        <v>0.3136281440818421</v>
       </c>
       <c r="J14" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K14" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01141336073609123</v>
+        <v>0.007477233062342603</v>
       </c>
       <c r="M14" t="n">
-        <v>18.31767861123602</v>
+        <v>18.45720475613451</v>
       </c>
       <c r="N14" t="n">
-        <v>544.7613798793594</v>
+        <v>550.8072399756414</v>
       </c>
       <c r="O14" t="n">
-        <v>23.34012381885236</v>
+        <v>23.46928290288481</v>
       </c>
       <c r="P14" t="n">
-        <v>313.9211367520905</v>
+        <v>314.7979753887826</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -34444,7 +34842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O585"/>
+  <dimension ref="A1:O591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72413,6 +72811,452 @@
         </is>
       </c>
     </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>-45.18297790726494,170.90581678403743</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>-45.182953608396524,170.90487422028556</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>-45.183196975531295,170.90396090887464</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>-45.183582769852755,170.9031745510216</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>-45.18405239757394,170.90252194844405</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>-45.184561691986055,170.9019497573702</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>-45.18509661001413,170.90142792824668</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>-45.185654538859545,170.90096880094154</t>
+        </is>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>-45.18619615249745,170.90048725975558</t>
+        </is>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>-45.18675608171135,170.90009976549234</t>
+        </is>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>-45.187346975495856,170.89976903501008</t>
+        </is>
+      </c>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>-45.18793496879783,170.89938865021173</t>
+        </is>
+      </c>
+      <c r="N586" t="inlineStr">
+        <is>
+          <t>-45.18854948066209,170.8989905830934</t>
+        </is>
+      </c>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>-45.183225421299774,170.90585390610372</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>-45.18289722139774,170.90485586909966</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>-45.18313026980301,170.90391312008333</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>-45.183536213920874,170.90312227079284</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>-45.184010306818976,170.90246302765718</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>-45.18451789738135,170.90187686610207</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>-45.185058578884494,170.90134806363943</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>-45.18568456688494,170.90104453506586</t>
+        </is>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>-45.18625514527165,170.90064809201246</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>-45.18673791010153,170.90005465251573</t>
+        </is>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>-45.18734192896919,170.8997576316443</t>
+        </is>
+      </c>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>-45.18794691901234,170.89944096162395</t>
+        </is>
+      </c>
+      <c r="N587" t="inlineStr">
+        <is>
+          <t>-45.18854178158567,170.89882793412332</t>
+        </is>
+      </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>-45.18306166472758,170.9058293459197</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>-45.18285758387901,170.90484296906416</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>-45.18311453655993,170.90390184861542</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>-45.18352691212752,170.90311182530826</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>-45.18397120424896,170.9024082899985</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>-45.18449051359244,170.90183128891388</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>-45.185022139315194,170.90127154148448</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>-45.18558880562478,170.90080301489718</t>
+        </is>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>-45.18615299444606,170.9003695983687</t>
+        </is>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>-45.1867388454054,170.90005697450647</t>
+        </is>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>-45.1872868262817,170.89963311935094</t>
+        </is>
+      </c>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>-45.18791795629895,170.89931417914323</t>
+        </is>
+      </c>
+      <c r="N588" t="inlineStr">
+        <is>
+          <t>-45.18854338032001,170.89886170822209</t>
+        </is>
+      </c>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-45.182909720098486,170.90580655740087</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>-45.1828526730359,170.90484137083087</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>-45.1830685408994,170.90386889685902</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>-45.183499640955404,170.9030812010661</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>-45.183972715796884,170.90241040593395</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>-45.18453834781653,170.90191090356274</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr"/>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>-45.18621633029602,170.90054227046966</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>-45.18670245759708,170.89996663806693</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>-45.18723681775072,170.89952011849144</t>
+        </is>
+      </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>-45.18787455346321,170.8991241873084</t>
+        </is>
+      </c>
+      <c r="N589" t="inlineStr">
+        <is>
+          <t>-45.18853140760143,170.89860878344692</t>
+        </is>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:25+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>-45.183119203239826,170.90583797552213</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>-45.18288792587356,170.90485284386855</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>-45.183124731059394,170.90390915206586</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>-45.18350917764525,170.90309191031542</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>-45.183971355403756,170.90240850159205</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>-45.184480336917474,170.9018143510197</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>-45.18501431527245,170.90125511122315</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>-45.18559352915448,170.900814928097</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>-45.18615077213091,170.90036353970558</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>-45.18673563864909,170.90004901339572</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>-45.18727317334294,170.89960226869408</t>
+        </is>
+      </c>
+      <c r="M590" t="inlineStr"/>
+      <c r="N590" t="inlineStr">
+        <is>
+          <t>-45.188531341485465,170.89860738677433</t>
+        </is>
+      </c>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-45.183242960254624,170.90585653660074</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>-45.18295334531567,170.90487413466565</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>-45.1832111836082,170.90397108772882</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>-45.18359782653424,170.90319145902495</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>-45.184064466685605,170.90253884342604</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>-45.18457518964896,170.90197222277257</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>-45.185068949493065,170.90136984168686</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>-45.185622794474625,170.9008887381839</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>-45.18622696722852,170.90057126997345</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>-45.18679790307094,170.90020359179192</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>-45.18748582274129,170.90008278246918</t>
+        </is>
+      </c>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>-45.18802050083165,170.89976306480094</t>
+        </is>
+      </c>
+      <c r="N591" t="inlineStr"/>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0476/nzd0476.xlsx
+++ b/data/nzd0476/nzd0476.xlsx
@@ -33705,7 +33705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33796,35 +33796,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33883,27 +33888,28 @@
       <c r="P2" t="n">
         <v>317.5262996346898</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.90537762170868 -45.18004961634162, 170.90656056771437 -45.18793677470044)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.9053776217087</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.18004961634162</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.9065605677144</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.18793677470044</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.9059690947115</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.18399319552103</v>
       </c>
     </row>
@@ -33960,27 +33966,28 @@
       <c r="P3" t="n">
         <v>309.1728663254785</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.90397448180906 -45.18018888827014, 170.90649019633074 -45.18791853245256)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.9039744818091</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.18018888827014</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.9064901963307</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.18791853245256</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.9052323390699</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.18405371036135</v>
       </c>
     </row>
@@ -34037,27 +34044,28 @@
       <c r="P4" t="n">
         <v>313.7427406866409</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.9021492095307 -45.18066800459481, 170.907219173607 -45.18774460203944)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.9021492095307</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.18066800459481</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.907219173607</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.18774460203944</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.9046841915688</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.18420630331713</v>
       </c>
     </row>
@@ -34114,27 +34122,28 @@
       <c r="P5" t="n">
         <v>313.4303377788052</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.90068152208204 -45.181362599715285, 170.90765930751937 -45.1875761131452)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.900681522082</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.18136259971529</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.9076593075194</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.1875761131452</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.9041704148007</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.18446935643024</v>
       </c>
     </row>
@@ -34191,27 +34200,28 @@
       <c r="P6" t="n">
         <v>314.3128506943309</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.89968208160778 -45.182023601680235, 170.90757673424756 -45.18766300362501)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.8996820816078</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.18202360168024</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.9075767342476</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.18766300362501</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.9036294079277</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.18484330265262</v>
       </c>
     </row>
@@ -34268,27 +34278,28 @@
       <c r="P7" t="n">
         <v>318.19717960811</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.898822709788 -45.182682795176525, 170.9073753020618 -45.18782115787314)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.898822709788</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.18268279517653</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.9073753020618</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.18782115787314</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.9030990059249</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.18525197652483</v>
       </c>
     </row>
@@ -34345,27 +34356,28 @@
       <c r="P8" t="n">
         <v>319.6610145286207</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.89800218505033 -45.18346519340378, 170.90731206362196 -45.18789831615412)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.8980021850503</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.18346519340378</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.907312063622</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.18789831615412</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.9026571243361</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.18568175477895</v>
       </c>
     </row>
@@ -34422,27 +34434,28 @@
       <c r="P9" t="n">
         <v>317.8454497287802</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.89737120880378 -45.18422802657075, 170.90716204698677 -45.188109847877726)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.8973712088038</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.18422802657075</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.9071620469868</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.18810984787773</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.9022666278953</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.18616893722424</v>
       </c>
     </row>
@@ -34499,27 +34512,28 @@
       <c r="P10" t="n">
         <v>320.3858192919016</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (170.89689965472826 -45.18488014030903, 170.9068641274558 -45.18853490326607)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>170.8968996547283</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-45.18488014030903</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>170.9068641274558</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-45.18853490326607</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>170.901881891092</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-45.18670752178755</v>
       </c>
     </row>
@@ -34576,27 +34590,28 @@
       <c r="P11" t="n">
         <v>327.1607196807578</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (170.89658778539277 -45.18534136104135, 170.9063413122432 -45.189269910357496)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>170.8965877853928</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-45.18534136104135</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>170.9063413122432</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-45.1892699103575</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>170.901464548818</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-45.18730563569942</v>
       </c>
     </row>
@@ -34653,27 +34668,28 @@
       <c r="P12" t="n">
         <v>335.3799067757417</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (170.8962128094494 -45.1857730806709, 170.90572764454993 -45.18998366600493)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>170.8962128094494</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-45.1857730806709</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>170.9057276445499</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-45.18998366600493</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>170.9009702269997</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-45.18787837333791</v>
       </c>
     </row>
@@ -34730,27 +34746,28 @@
       <c r="P13" t="n">
         <v>340.2859307664629</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (170.89530382865365 -45.18700172801508, 170.90598687126172 -45.18944206392685)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>170.8953038286537</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-45.18700172801508</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>170.9059868712617</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-45.18944206392685</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>170.9006453499577</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-45.18822189597097</v>
       </c>
     </row>
@@ -34807,27 +34824,28 @@
       <c r="P14" t="n">
         <v>314.7979753887826</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (170.89506188231425 -45.18836344821095, 170.90626451154654 -45.18889355728196)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>170.8950618823143</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-45.18836344821095</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>170.9062645115465</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-45.18889355728196</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>170.9006631969304</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-45.18862850274645</v>
       </c>
     </row>

--- a/data/nzd0476/nzd0476.xlsx
+++ b/data/nzd0476/nzd0476.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O591"/>
+  <dimension ref="A1:O596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27053,6 +27053,261 @@
         </is>
       </c>
     </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>324.66</v>
+      </c>
+      <c r="C592" t="n">
+        <v>317.02</v>
+      </c>
+      <c r="D592" t="n">
+        <v>313.4</v>
+      </c>
+      <c r="E592" t="n">
+        <v>311.21</v>
+      </c>
+      <c r="F592" t="n">
+        <v>313.9336363636364</v>
+      </c>
+      <c r="G592" t="n">
+        <v>315.77</v>
+      </c>
+      <c r="H592" t="n">
+        <v>315.81</v>
+      </c>
+      <c r="I592" t="n">
+        <v>312.83</v>
+      </c>
+      <c r="J592" t="n">
+        <v>312.9836363636364</v>
+      </c>
+      <c r="K592" t="n">
+        <v>313.65</v>
+      </c>
+      <c r="L592" t="n">
+        <v>320.1171428571428</v>
+      </c>
+      <c r="M592" t="n">
+        <v>337.66</v>
+      </c>
+      <c r="N592" t="n">
+        <v>307.74</v>
+      </c>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>315.41</v>
+      </c>
+      <c r="C593" t="n">
+        <v>310.99</v>
+      </c>
+      <c r="D593" t="n">
+        <v>313.21</v>
+      </c>
+      <c r="E593" t="n">
+        <v>311.8566666666667</v>
+      </c>
+      <c r="F593" t="n">
+        <v>316.8018181818182</v>
+      </c>
+      <c r="G593" t="n">
+        <v>316.0566666666667</v>
+      </c>
+      <c r="H593" t="n">
+        <v>317.7466666666667</v>
+      </c>
+      <c r="I593" t="n">
+        <v>315.6966666666667</v>
+      </c>
+      <c r="J593" t="n">
+        <v>318.2018181818182</v>
+      </c>
+      <c r="K593" t="n">
+        <v>324.15</v>
+      </c>
+      <c r="L593" t="n">
+        <v>330.2742857142857</v>
+      </c>
+      <c r="M593" t="n">
+        <v>348.61</v>
+      </c>
+      <c r="N593" t="n">
+        <v>326.49</v>
+      </c>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>346.84</v>
+      </c>
+      <c r="C594" t="n">
+        <v>322.87</v>
+      </c>
+      <c r="D594" t="n">
+        <v>321.93</v>
+      </c>
+      <c r="E594" t="n">
+        <v>322.1766666666667</v>
+      </c>
+      <c r="F594" t="n">
+        <v>325.2463636363636</v>
+      </c>
+      <c r="G594" t="n">
+        <v>328.4266666666667</v>
+      </c>
+      <c r="H594" t="n">
+        <v>329.0466666666667</v>
+      </c>
+      <c r="I594" t="n">
+        <v>323.6966666666667</v>
+      </c>
+      <c r="J594" t="n">
+        <v>325.4463636363636</v>
+      </c>
+      <c r="K594" t="n">
+        <v>340.02</v>
+      </c>
+      <c r="L594" t="n">
+        <v>348.85</v>
+      </c>
+      <c r="M594" t="n">
+        <v>363.25</v>
+      </c>
+      <c r="N594" t="n">
+        <v>356.83</v>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>315.68</v>
+      </c>
+      <c r="C595" t="n">
+        <v>310.79</v>
+      </c>
+      <c r="D595" t="n">
+        <v>311.17</v>
+      </c>
+      <c r="E595" t="n">
+        <v>312.38</v>
+      </c>
+      <c r="F595" t="n">
+        <v>313.5054545454545</v>
+      </c>
+      <c r="G595" t="n">
+        <v>316.89</v>
+      </c>
+      <c r="H595" t="n">
+        <v>318.52</v>
+      </c>
+      <c r="I595" t="n">
+        <v>314.67</v>
+      </c>
+      <c r="J595" t="n">
+        <v>314.1254545454545</v>
+      </c>
+      <c r="K595" t="n">
+        <v>329</v>
+      </c>
+      <c r="L595" t="n">
+        <v>335.6771428571428</v>
+      </c>
+      <c r="M595" t="n">
+        <v>351.82</v>
+      </c>
+      <c r="N595" t="n">
+        <v>315.04</v>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>321.53</v>
+      </c>
+      <c r="C596" t="n">
+        <v>315.28</v>
+      </c>
+      <c r="D596" t="n">
+        <v>319.73</v>
+      </c>
+      <c r="E596" t="n">
+        <v>319.9633333333333</v>
+      </c>
+      <c r="F596" t="n">
+        <v>319.8872727272728</v>
+      </c>
+      <c r="G596" t="n">
+        <v>322.6033333333333</v>
+      </c>
+      <c r="H596" t="n">
+        <v>321.8833333333333</v>
+      </c>
+      <c r="I596" t="n">
+        <v>320.6133333333333</v>
+      </c>
+      <c r="J596" t="n">
+        <v>322.4072727272728</v>
+      </c>
+      <c r="K596" t="n">
+        <v>331.25</v>
+      </c>
+      <c r="L596" t="n">
+        <v>346.9671428571428</v>
+      </c>
+      <c r="M596" t="n">
+        <v>361.99</v>
+      </c>
+      <c r="N596" t="n">
+        <v>340.6</v>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27064,7 +27319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B662"/>
+  <dimension ref="A1:B667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33692,6 +33947,56 @@
       </c>
       <c r="B662" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -33865,28 +34170,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3622577835130183</v>
+        <v>0.3575490176438401</v>
       </c>
       <c r="J2" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K2" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0129742446125124</v>
+        <v>0.01288031007431112</v>
       </c>
       <c r="M2" t="n">
-        <v>16.93899675939836</v>
+        <v>16.85395880271684</v>
       </c>
       <c r="N2" t="n">
-        <v>444.1949307245364</v>
+        <v>440.6603970036777</v>
       </c>
       <c r="O2" t="n">
-        <v>21.07593249952505</v>
+        <v>20.99191265710864</v>
       </c>
       <c r="P2" t="n">
-        <v>317.5262996346898</v>
+        <v>317.5805497020264</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33943,28 +34248,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04669152773028855</v>
+        <v>-0.03007320859408949</v>
       </c>
       <c r="J3" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K3" t="n">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001002797939023692</v>
+        <v>0.0004214768224909404</v>
       </c>
       <c r="M3" t="n">
-        <v>7.21832376528024</v>
+        <v>7.217068286792167</v>
       </c>
       <c r="N3" t="n">
-        <v>95.06065880053444</v>
+        <v>94.82154348345965</v>
       </c>
       <c r="O3" t="n">
-        <v>9.749905579057391</v>
+        <v>9.737635415410645</v>
       </c>
       <c r="P3" t="n">
-        <v>309.1728663254785</v>
+        <v>308.9792776090684</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34021,28 +34326,28 @@
         <v>0.0519</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1926802487883952</v>
+        <v>-0.1770477272374665</v>
       </c>
       <c r="J4" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K4" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02058672241936921</v>
+        <v>0.01762817329972122</v>
       </c>
       <c r="M4" t="n">
-        <v>6.449486925009636</v>
+        <v>6.453133337849876</v>
       </c>
       <c r="N4" t="n">
-        <v>76.23901655276391</v>
+        <v>76.13036089781879</v>
       </c>
       <c r="O4" t="n">
-        <v>8.731495665277738</v>
+        <v>8.725271393934907</v>
       </c>
       <c r="P4" t="n">
-        <v>313.7427406866409</v>
+        <v>313.5587615742089</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34099,28 +34404,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2203516078001539</v>
+        <v>-0.2029779608559517</v>
       </c>
       <c r="J5" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K5" t="n">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03081138106420578</v>
+        <v>0.02647801524547144</v>
       </c>
       <c r="M5" t="n">
-        <v>6.03494981080098</v>
+        <v>6.051913310088675</v>
       </c>
       <c r="N5" t="n">
-        <v>67.63552667886002</v>
+        <v>67.76113063257675</v>
       </c>
       <c r="O5" t="n">
-        <v>8.224082117711376</v>
+        <v>8.231714926585878</v>
       </c>
       <c r="P5" t="n">
-        <v>313.4303377788052</v>
+        <v>313.2292931244167</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34177,28 +34482,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2627519461653638</v>
+        <v>-0.2402207093546092</v>
       </c>
       <c r="J6" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K6" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03433449031902913</v>
+        <v>0.02900523326145621</v>
       </c>
       <c r="M6" t="n">
-        <v>6.702507245699168</v>
+        <v>6.731872324516661</v>
       </c>
       <c r="N6" t="n">
-        <v>86.53190125109293</v>
+        <v>86.91035090791138</v>
       </c>
       <c r="O6" t="n">
-        <v>9.30225248265671</v>
+        <v>9.322572118675799</v>
       </c>
       <c r="P6" t="n">
-        <v>314.3128506943309</v>
+        <v>314.0520488205647</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34255,28 +34560,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2296739699445171</v>
+        <v>-0.2128521225139344</v>
       </c>
       <c r="J7" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K7" t="n">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02908024675285392</v>
+        <v>0.02530437701880972</v>
       </c>
       <c r="M7" t="n">
-        <v>6.396733426532504</v>
+        <v>6.415033982668154</v>
       </c>
       <c r="N7" t="n">
-        <v>77.19751416529411</v>
+        <v>77.23552427183357</v>
       </c>
       <c r="O7" t="n">
-        <v>8.786211593473841</v>
+        <v>8.788374381638141</v>
       </c>
       <c r="P7" t="n">
-        <v>318.19717960811</v>
+        <v>318.0009036308616</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34333,28 +34638,28 @@
         <v>0.0641</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2587004321479709</v>
+        <v>-0.2415802921671981</v>
       </c>
       <c r="J8" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K8" t="n">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05109876822744208</v>
+        <v>0.04507716895557234</v>
       </c>
       <c r="M8" t="n">
-        <v>5.520207654977201</v>
+        <v>5.540417150542689</v>
       </c>
       <c r="N8" t="n">
-        <v>54.37638565327374</v>
+        <v>54.62779610497792</v>
       </c>
       <c r="O8" t="n">
-        <v>7.374034557369103</v>
+        <v>7.391061906450109</v>
       </c>
       <c r="P8" t="n">
-        <v>319.6610145286207</v>
+        <v>319.4608955755139</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34411,28 +34716,28 @@
         <v>0.063</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2209043149173644</v>
+        <v>-0.2091114987244118</v>
       </c>
       <c r="J9" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K9" t="n">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03182083854780271</v>
+        <v>0.02896971721561881</v>
       </c>
       <c r="M9" t="n">
-        <v>5.874725713510426</v>
+        <v>5.866631742869411</v>
       </c>
       <c r="N9" t="n">
-        <v>64.83846352029278</v>
+        <v>64.60833313386195</v>
       </c>
       <c r="O9" t="n">
-        <v>8.052233449192391</v>
+        <v>8.037930898798642</v>
       </c>
       <c r="P9" t="n">
-        <v>317.8454497287802</v>
+        <v>317.7069397889432</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34489,28 +34794,28 @@
         <v>0.0619</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2464893512634891</v>
+        <v>-0.2365073306758151</v>
       </c>
       <c r="J10" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K10" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0319827786917658</v>
+        <v>0.0299380312130656</v>
       </c>
       <c r="M10" t="n">
-        <v>6.65651583242474</v>
+        <v>6.635897983000703</v>
       </c>
       <c r="N10" t="n">
-        <v>80.59630003928686</v>
+        <v>80.19483345723418</v>
       </c>
       <c r="O10" t="n">
-        <v>8.977544209820794</v>
+        <v>8.955156808076238</v>
       </c>
       <c r="P10" t="n">
-        <v>320.3858192919016</v>
+        <v>320.2691698765606</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34567,28 +34872,28 @@
         <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2132924231014996</v>
+        <v>-0.2006438867383828</v>
       </c>
       <c r="J11" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K11" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01703314113971632</v>
+        <v>0.01524806846915017</v>
       </c>
       <c r="M11" t="n">
-        <v>8.02547954508905</v>
+        <v>8.04152486245777</v>
       </c>
       <c r="N11" t="n">
-        <v>115.3132371546112</v>
+        <v>115.250890150683</v>
       </c>
       <c r="O11" t="n">
-        <v>10.73840012080995</v>
+        <v>10.73549673516242</v>
       </c>
       <c r="P11" t="n">
-        <v>327.1607196807578</v>
+        <v>327.0128018280217</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34645,28 +34950,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.149477432825782</v>
+        <v>-0.1389173099612231</v>
       </c>
       <c r="J12" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K12" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005818362323312121</v>
+        <v>0.005083898996836589</v>
       </c>
       <c r="M12" t="n">
-        <v>9.642260907415395</v>
+        <v>9.648889226072086</v>
       </c>
       <c r="N12" t="n">
-        <v>165.9482726037092</v>
+        <v>165.6363758576471</v>
       </c>
       <c r="O12" t="n">
-        <v>12.88209115802668</v>
+        <v>12.86997963703312</v>
       </c>
       <c r="P12" t="n">
-        <v>335.3799067757417</v>
+        <v>335.2548909625611</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34723,28 +35028,28 @@
         <v>0.0317</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03296505503787352</v>
+        <v>0.05968941925117646</v>
       </c>
       <c r="J13" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K13" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001578958394206076</v>
+        <v>0.0005240610148414815</v>
       </c>
       <c r="M13" t="n">
-        <v>13.47535897566497</v>
+        <v>13.45520726376536</v>
       </c>
       <c r="N13" t="n">
-        <v>300.9192413148192</v>
+        <v>299.9571820277244</v>
       </c>
       <c r="O13" t="n">
-        <v>17.34702399014941</v>
+        <v>17.31927198319041</v>
       </c>
       <c r="P13" t="n">
-        <v>340.2859307664629</v>
+        <v>339.9709523042071</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34801,28 +35106,28 @@
         <v>0.0312</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3136281440818421</v>
+        <v>0.3293027892036886</v>
       </c>
       <c r="J14" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K14" t="n">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007477233062342603</v>
+        <v>0.008355700403049893</v>
       </c>
       <c r="M14" t="n">
-        <v>18.45720475613451</v>
+        <v>18.42444290762203</v>
       </c>
       <c r="N14" t="n">
-        <v>550.8072399756414</v>
+        <v>548.5488734967034</v>
       </c>
       <c r="O14" t="n">
-        <v>23.46928290288481</v>
+        <v>23.42112024427319</v>
       </c>
       <c r="P14" t="n">
-        <v>314.7979753887826</v>
+        <v>314.6105191474854</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34860,7 +35165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O591"/>
+  <dimension ref="A1:O596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73275,6 +73580,391 @@
         </is>
       </c>
     </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>-45.18295482027172,170.90581332147306</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>-45.182968954779845,170.90487921478223</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>-45.18318373071309,170.90395142011673</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>-45.18355566312222,170.90314411136245</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>-45.18403124174094,170.9024923334134</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>-45.18452261671341,170.90188472089852</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>-45.18505254751095,170.90133539789662</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>-45.1856047805387,170.90084330519898</t>
+        </is>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>-45.18617697659657,170.9004349806164</t>
+        </is>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>-45.18673835548433,170.9000557582256</t>
+        </is>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>-45.187301290749936,170.89966580380437</t>
+        </is>
+      </c>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>-45.18793585399972,170.8993925251304</t>
+        </is>
+      </c>
+      <c r="N592" t="inlineStr">
+        <is>
+          <t>-45.188548470960306,170.89896925207793</t>
+        </is>
+      </c>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>-45.18287204713591,170.9058009072605</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>-45.18291607552672,170.90486200518444</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>-45.183182205552164,170.90395032747216</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>-45.18356022006013,170.90314922859955</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>-45.18404958377301,170.9025180095379</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>-45.18452428692957,170.90188750078562</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>-45.18506228147703,170.90135583899954</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>-45.18561739616343,170.9008751230844</t>
+        </is>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>-45.186198597037055,170.90049392429586</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>-45.186785120620435,170.9001718578586</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>-45.187349778363554,170.89977536850193</t>
+        </is>
+      </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>-45.18796614442366,170.89952512007778</t>
+        </is>
+      </c>
+      <c r="N593" t="inlineStr">
+        <is>
+          <t>-45.1885597397281,170.89920732149776</t>
+        </is>
+      </c>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>-45.18315329682132,170.90584308887077</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>-45.183020255545436,170.90489591068956</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>-45.1832522024017,170.90400047416625</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>-45.18363294312217,170.90323089348217</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>-45.184103586636546,170.9025936056783</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>-45.18459635863693,170.90200745630287</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>-45.1851190768366,170.90147510822595</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>-45.185652602512306,170.90096391725874</t>
+        </is>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>-45.18622861324044,170.9005757575039</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>-45.186855802565006,170.90034733452768</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>-45.18743845382922,170.89997574448353</t>
+        </is>
+      </c>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>-45.188006642068665,170.8997023979338</t>
+        </is>
+      </c>
+      <c r="N594" t="inlineStr">
+        <is>
+          <t>-45.18857797304856,170.89959254979888</t>
+        </is>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>-45.182874463216656,170.90580126962084</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>-45.182914321654266,170.9048614343857</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>-45.18316583013944,170.90393859592353</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>-45.18356390789117,170.90315336986927</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>-45.18402850351633,170.90248850030716</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>-45.184529142208746,170.90189558185378</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>-45.185066168360954,170.90136400136961</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>-45.18561287801045,170.90086372784006</t>
+        </is>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>-45.18618170748295,170.90044787839324</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>-45.186806721620655,170.90022548489716</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>-45.18737557018618,170.8998336489847</t>
+        </is>
+      </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>-45.18797502405346,170.89956399040506</t>
+        </is>
+      </c>
+      <c r="N595" t="inlineStr">
+        <is>
+          <t>-45.18855285832607,170.8990619404254</t>
+        </is>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>-45.18292681163246,170.9058091207684</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>-45.18295369609014,170.90487424882554</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>-45.18323454264802,170.90398782246598</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>-45.18361734619107,170.90321337877415</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>-45.18406931525869,170.9025456307185</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>-45.18456242998788,170.90195098569407</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>-45.18508307294864,170.90139950065605</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>-45.18563903340664,170.90092969449086</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>-45.18621602143314,170.90054142841623</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>-45.1868167426949,170.9002503634342</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>-45.187429465591016,170.8999554341</t>
+        </is>
+      </c>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>-45.18800315662627,170.89968714040316</t>
+        </is>
+      </c>
+      <c r="N596" t="inlineStr">
+        <is>
+          <t>-45.18856821952514,170.8993864767457</t>
+        </is>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0476/nzd0476.xlsx
+++ b/data/nzd0476/nzd0476.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O596"/>
+  <dimension ref="A1:O600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27308,6 +27308,192 @@
         </is>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>323.55</v>
+      </c>
+      <c r="C597" t="n">
+        <v>314.39</v>
+      </c>
+      <c r="D597" t="n">
+        <v>317.22</v>
+      </c>
+      <c r="E597" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="F597" t="n">
+        <v>316.4936363636364</v>
+      </c>
+      <c r="G597" t="n">
+        <v>323.19</v>
+      </c>
+      <c r="H597" t="n">
+        <v>323.29</v>
+      </c>
+      <c r="I597" t="n">
+        <v>326.1</v>
+      </c>
+      <c r="J597" t="n">
+        <v>323.4336363636364</v>
+      </c>
+      <c r="K597" t="n">
+        <v>328.44</v>
+      </c>
+      <c r="L597" t="n">
+        <v>345.8857142857143</v>
+      </c>
+      <c r="M597" t="n">
+        <v>362.46</v>
+      </c>
+      <c r="N597" t="n">
+        <v>341.96</v>
+      </c>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:13:46+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>299.48</v>
+      </c>
+      <c r="C598" t="n">
+        <v>297.61</v>
+      </c>
+      <c r="D598" t="n">
+        <v>302.6799999999999</v>
+      </c>
+      <c r="E598" t="n">
+        <v>305.76</v>
+      </c>
+      <c r="F598" t="inlineStr"/>
+      <c r="G598" t="inlineStr"/>
+      <c r="H598" t="inlineStr"/>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="inlineStr"/>
+      <c r="M598" t="inlineStr"/>
+      <c r="N598" t="inlineStr"/>
+      <c r="O598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>316.31</v>
+      </c>
+      <c r="C599" t="n">
+        <v>314.58</v>
+      </c>
+      <c r="D599" t="n">
+        <v>317.04</v>
+      </c>
+      <c r="E599" t="n">
+        <v>317.4666666666667</v>
+      </c>
+      <c r="F599" t="n">
+        <v>320.24</v>
+      </c>
+      <c r="G599" t="n">
+        <v>322.5366666666667</v>
+      </c>
+      <c r="H599" t="n">
+        <v>322.8266666666667</v>
+      </c>
+      <c r="I599" t="n">
+        <v>320.7966666666667</v>
+      </c>
+      <c r="J599" t="n">
+        <v>320.32</v>
+      </c>
+      <c r="K599" t="n">
+        <v>331.53</v>
+      </c>
+      <c r="L599" t="n">
+        <v>339.3542857142857</v>
+      </c>
+      <c r="M599" t="n">
+        <v>362.57</v>
+      </c>
+      <c r="N599" t="n">
+        <v>320.37</v>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>319.6</v>
+      </c>
+      <c r="C600" t="n">
+        <v>317.51</v>
+      </c>
+      <c r="D600" t="n">
+        <v>319.1</v>
+      </c>
+      <c r="E600" t="n">
+        <v>317.22</v>
+      </c>
+      <c r="F600" t="n">
+        <v>320.48</v>
+      </c>
+      <c r="G600" t="n">
+        <v>324.29</v>
+      </c>
+      <c r="H600" t="n">
+        <v>324.38</v>
+      </c>
+      <c r="I600" t="n">
+        <v>324.47</v>
+      </c>
+      <c r="J600" t="n">
+        <v>325.95</v>
+      </c>
+      <c r="K600" t="n">
+        <v>336.45</v>
+      </c>
+      <c r="L600" t="n">
+        <v>350.5271428571428</v>
+      </c>
+      <c r="M600" t="n">
+        <v>371.47</v>
+      </c>
+      <c r="N600" t="n">
+        <v>352.01</v>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27319,7 +27505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B667"/>
+  <dimension ref="A1:B671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33997,6 +34183,46 @@
       </c>
       <c r="B667" t="n">
         <v>0.59</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -34170,28 +34396,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3575490176438401</v>
+        <v>0.3350956094684775</v>
       </c>
       <c r="J2" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K2" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01288031007431112</v>
+        <v>0.01147630138587141</v>
       </c>
       <c r="M2" t="n">
-        <v>16.85395880271684</v>
+        <v>16.78340534524928</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6603970036777</v>
+        <v>438.6937776979827</v>
       </c>
       <c r="O2" t="n">
-        <v>20.99191265710864</v>
+        <v>20.94501796843304</v>
       </c>
       <c r="P2" t="n">
-        <v>317.5805497020264</v>
+        <v>317.840138702352</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34248,28 +34474,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03007320859408949</v>
+        <v>-0.0250846921078845</v>
       </c>
       <c r="J3" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K3" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004214768224909404</v>
+        <v>0.000296263909071004</v>
       </c>
       <c r="M3" t="n">
-        <v>7.217068286792167</v>
+        <v>7.223960661798215</v>
       </c>
       <c r="N3" t="n">
-        <v>94.82154348345965</v>
+        <v>94.60095536213495</v>
       </c>
       <c r="O3" t="n">
-        <v>9.737635415410645</v>
+        <v>9.726302245053613</v>
       </c>
       <c r="P3" t="n">
-        <v>308.9792776090684</v>
+        <v>308.9208622373512</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34326,28 +34552,28 @@
         <v>0.0519</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1770477272374665</v>
+        <v>-0.1683355931009273</v>
       </c>
       <c r="J4" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K4" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01762817329972122</v>
+        <v>0.01609629879874241</v>
       </c>
       <c r="M4" t="n">
-        <v>6.453133337849876</v>
+        <v>6.466054868467012</v>
       </c>
       <c r="N4" t="n">
-        <v>76.13036089781879</v>
+        <v>76.06081969260127</v>
       </c>
       <c r="O4" t="n">
-        <v>8.725271393934907</v>
+        <v>8.72128543808774</v>
       </c>
       <c r="P4" t="n">
-        <v>313.5587615742089</v>
+        <v>313.4558048451396</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34404,28 +34630,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2029779608559517</v>
+        <v>-0.1923546815220433</v>
       </c>
       <c r="J5" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K5" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02647801524547144</v>
+        <v>0.02405515734199593</v>
       </c>
       <c r="M5" t="n">
-        <v>6.051913310088675</v>
+        <v>6.06069702550801</v>
       </c>
       <c r="N5" t="n">
-        <v>67.76113063257675</v>
+        <v>67.68000914188519</v>
       </c>
       <c r="O5" t="n">
-        <v>8.231714926585878</v>
+        <v>8.226786076098319</v>
       </c>
       <c r="P5" t="n">
-        <v>313.2292931244167</v>
+        <v>313.1058854182267</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34482,28 +34708,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2402207093546092</v>
+        <v>-0.2256327147408015</v>
       </c>
       <c r="J6" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K6" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02900523326145621</v>
+        <v>0.02574437880487712</v>
       </c>
       <c r="M6" t="n">
-        <v>6.731872324516661</v>
+        <v>6.754231439376184</v>
       </c>
       <c r="N6" t="n">
-        <v>86.91035090791138</v>
+        <v>87.16480160590031</v>
       </c>
       <c r="O6" t="n">
-        <v>9.322572118675799</v>
+        <v>9.336209166781789</v>
       </c>
       <c r="P6" t="n">
-        <v>314.0520488205647</v>
+        <v>313.882440970756</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34560,28 +34786,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2128521225139344</v>
+        <v>-0.1986899153778777</v>
       </c>
       <c r="J7" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K7" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02530437701880972</v>
+        <v>0.02217676845939809</v>
       </c>
       <c r="M7" t="n">
-        <v>6.415033982668154</v>
+        <v>6.447053710797081</v>
       </c>
       <c r="N7" t="n">
-        <v>77.23552427183357</v>
+        <v>77.4784390808536</v>
       </c>
       <c r="O7" t="n">
-        <v>8.788374381638141</v>
+        <v>8.802183767727961</v>
       </c>
       <c r="P7" t="n">
-        <v>318.0009036308616</v>
+        <v>317.8350130153592</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34638,28 +34864,28 @@
         <v>0.0641</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2415802921671981</v>
+        <v>-0.2277964624893227</v>
       </c>
       <c r="J8" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K8" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04507716895557234</v>
+        <v>0.0402793027093058</v>
       </c>
       <c r="M8" t="n">
-        <v>5.540417150542689</v>
+        <v>5.571182081826272</v>
       </c>
       <c r="N8" t="n">
-        <v>54.62779610497792</v>
+        <v>54.94890226402904</v>
       </c>
       <c r="O8" t="n">
-        <v>7.391061906450109</v>
+        <v>7.412752677921276</v>
       </c>
       <c r="P8" t="n">
-        <v>319.4608955755139</v>
+        <v>319.2991357483812</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34716,28 +34942,28 @@
         <v>0.063</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2091114987244118</v>
+        <v>-0.1940100018078222</v>
       </c>
       <c r="J9" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K9" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02896971721561881</v>
+        <v>0.02500377999386616</v>
       </c>
       <c r="M9" t="n">
-        <v>5.866631742869411</v>
+        <v>5.900378302032498</v>
       </c>
       <c r="N9" t="n">
-        <v>64.60833313386195</v>
+        <v>65.05688749944269</v>
       </c>
       <c r="O9" t="n">
-        <v>8.037930898798642</v>
+        <v>8.065784989661124</v>
       </c>
       <c r="P9" t="n">
-        <v>317.7069397889432</v>
+        <v>317.5289515494821</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34794,28 +35020,28 @@
         <v>0.0619</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2365073306758151</v>
+        <v>-0.2247523053117438</v>
       </c>
       <c r="J10" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K10" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0299380312130656</v>
+        <v>0.02725194396790731</v>
       </c>
       <c r="M10" t="n">
-        <v>6.635897983000703</v>
+        <v>6.647809126733758</v>
       </c>
       <c r="N10" t="n">
-        <v>80.19483345723418</v>
+        <v>80.22967118423742</v>
       </c>
       <c r="O10" t="n">
-        <v>8.955156808076238</v>
+        <v>8.957101717868198</v>
       </c>
       <c r="P10" t="n">
-        <v>320.2691698765606</v>
+        <v>320.1313537595175</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34872,28 +35098,28 @@
         <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2006438867383828</v>
+        <v>-0.1876088470487722</v>
       </c>
       <c r="J11" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K11" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01524806846915017</v>
+        <v>0.01342913771472964</v>
       </c>
       <c r="M11" t="n">
-        <v>8.04152486245777</v>
+        <v>8.059428657609155</v>
       </c>
       <c r="N11" t="n">
-        <v>115.250890150683</v>
+        <v>115.2484837164933</v>
       </c>
       <c r="O11" t="n">
-        <v>10.73549673516242</v>
+        <v>10.73538465619622</v>
       </c>
       <c r="P11" t="n">
-        <v>327.0128018280217</v>
+        <v>326.8599961749658</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34950,28 +35176,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1389173099612231</v>
+        <v>-0.1214024080746365</v>
       </c>
       <c r="J12" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K12" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005083898996836589</v>
+        <v>0.00390263939970803</v>
       </c>
       <c r="M12" t="n">
-        <v>9.648889226072086</v>
+        <v>9.679568849813545</v>
       </c>
       <c r="N12" t="n">
-        <v>165.6363758576471</v>
+        <v>165.8671963113504</v>
       </c>
       <c r="O12" t="n">
-        <v>12.86997963703312</v>
+        <v>12.87894391288938</v>
       </c>
       <c r="P12" t="n">
-        <v>335.2548909625611</v>
+        <v>335.0474640296626</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35028,28 +35254,28 @@
         <v>0.0317</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05968941925117646</v>
+        <v>0.09265453117410476</v>
       </c>
       <c r="J13" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K13" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005240610148414815</v>
+        <v>0.001260747483953994</v>
       </c>
       <c r="M13" t="n">
-        <v>13.45520726376536</v>
+        <v>13.51417208267371</v>
       </c>
       <c r="N13" t="n">
-        <v>299.9571820277244</v>
+        <v>301.8881833269623</v>
       </c>
       <c r="O13" t="n">
-        <v>17.31927198319041</v>
+        <v>17.37492973588562</v>
       </c>
       <c r="P13" t="n">
-        <v>339.9709523042071</v>
+        <v>339.581181939537</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35106,28 +35332,28 @@
         <v>0.0312</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3293027892036886</v>
+        <v>0.3506654548492872</v>
       </c>
       <c r="J14" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K14" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L14" t="n">
-        <v>0.008355700403049893</v>
+        <v>0.009539459078932722</v>
       </c>
       <c r="M14" t="n">
-        <v>18.42444290762203</v>
+        <v>18.41398447560303</v>
       </c>
       <c r="N14" t="n">
-        <v>548.5488734967034</v>
+        <v>547.5101159324437</v>
       </c>
       <c r="O14" t="n">
-        <v>23.42112024427319</v>
+        <v>23.39893407684298</v>
       </c>
       <c r="P14" t="n">
-        <v>314.6105191474854</v>
+        <v>314.3547579708455</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35165,7 +35391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O596"/>
+  <dimension ref="A1:O600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73965,6 +74191,278 @@
         </is>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>-45.18294488749552,170.90581183176587</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>-45.18294589135798,170.9048717087682</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>-45.18321439447291,170.90397338803552</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>-45.1835866690872,170.90317892969247</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>-45.184047612949534,170.9025152506762</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>-45.18456584810142,170.90195667477354</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>-45.18509014305052,170.90141434773759</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>-45.18566317907313,170.90099059253035</t>
+        </is>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>-45.186220273947114,170.90055302205494</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>-45.1868042274858,170.9002192929071</t>
+        </is>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>-45.18742430314913,170.89994376873088</t>
+        </is>
+      </c>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>-45.188004456751855,170.89969283170407</t>
+        </is>
+      </c>
+      <c r="N597" t="inlineStr">
+        <is>
+          <t>-45.188569036840164,170.89940374472474</t>
+        </is>
+      </c>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:13:46+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>-45.182729498369106,170.90577952804762</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>-45.18279874145376,170.90482381882154</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>-45.1830976795126,170.90388977204944</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>-45.18351725799254,170.90310098416495</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr"/>
+      <c r="G598" t="inlineStr"/>
+      <c r="H598" t="inlineStr"/>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="inlineStr"/>
+      <c r="M598" t="inlineStr"/>
+      <c r="N598" t="inlineStr"/>
+      <c r="O598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>-45.182880100738394,170.9058021151284</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>-45.18294755753676,170.90487225102757</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>-45.18321294958378,170.90397235289748</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>-45.18359975266179,170.90319362198392</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>-45.18407157094963,170.90254878835614</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>-45.18456204156587,170.90195033920781</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>-45.185087814273096,170.90140945734777</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>-45.18563984021861,170.90093172935767</t>
+        </is>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>-45.18620737327008,170.90051785092433</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>-45.18681798976155,170.90025345943053</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>-45.187393123884966,170.89987331426175</t>
+        </is>
+      </c>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>-45.18800476103651,170.89969416371068</t>
+        </is>
+      </c>
+      <c r="N599" t="inlineStr">
+        <is>
+          <t>-45.188556061656676,170.8991296156268</t>
+        </is>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>-45.18290954112955,170.90580653055932</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>-45.18297325176713,170.90488061324177</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>-45.1832294855365,170.9039841994805</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>-45.18359801444911,170.90319167004535</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>-45.184073105749604,170.902550936852</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>-45.18457225706358,170.90196734179935</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>-45.185095621540526,170.90142585246915</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>-45.18565600578912,170.90097250070147</t>
+        </is>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>-45.18623069994639,170.90058144650166</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>-45.186839902490746,170.9003078605315</t>
+        </is>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>-45.18744646004148,170.89999383583213</t>
+        </is>
+      </c>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>-45.18802938038167,170.8998019352049</t>
+        </is>
+      </c>
+      <c r="N600" t="inlineStr">
+        <is>
+          <t>-45.18857507647711,170.89953135002938</t>
+        </is>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0476/nzd0476.xlsx
+++ b/data/nzd0476/nzd0476.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O600"/>
+  <dimension ref="A1:O601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27494,6 +27494,47 @@
         </is>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:19:47+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr"/>
+      <c r="C601" t="inlineStr"/>
+      <c r="D601" t="inlineStr"/>
+      <c r="E601" t="inlineStr"/>
+      <c r="F601" t="inlineStr"/>
+      <c r="G601" t="n">
+        <v>332.8166666666667</v>
+      </c>
+      <c r="H601" t="n">
+        <v>322.0866666666667</v>
+      </c>
+      <c r="I601" t="n">
+        <v>303.7666666666667</v>
+      </c>
+      <c r="J601" t="n">
+        <v>324.9281818181818</v>
+      </c>
+      <c r="K601" t="n">
+        <v>312</v>
+      </c>
+      <c r="L601" t="n">
+        <v>314.6457142857143</v>
+      </c>
+      <c r="M601" t="n">
+        <v>339.93</v>
+      </c>
+      <c r="N601" t="n">
+        <v>327.45</v>
+      </c>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27505,7 +27546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B671"/>
+  <dimension ref="A1:B672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34223,6 +34264,16 @@
       </c>
       <c r="B671" t="n">
         <v>0.66</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -34399,7 +34450,7 @@
         <v>0.3350956094684775</v>
       </c>
       <c r="J2" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
         <v>438</v>
@@ -34477,7 +34528,7 @@
         <v>-0.0250846921078845</v>
       </c>
       <c r="J3" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
         <v>464</v>
@@ -34555,7 +34606,7 @@
         <v>-0.1683355931009273</v>
       </c>
       <c r="J4" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
         <v>474</v>
@@ -34633,7 +34684,7 @@
         <v>-0.1923546815220433</v>
       </c>
       <c r="J5" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
         <v>462</v>
@@ -34711,7 +34762,7 @@
         <v>-0.2256327147408015</v>
       </c>
       <c r="J6" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
         <v>466</v>
@@ -34786,28 +34837,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1986899153778777</v>
+        <v>-0.1899129201673572</v>
       </c>
       <c r="J7" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02217676845939809</v>
+        <v>0.02016190124757244</v>
       </c>
       <c r="M7" t="n">
-        <v>6.447053710797081</v>
+        <v>6.478572412581838</v>
       </c>
       <c r="N7" t="n">
-        <v>77.4784390808536</v>
+        <v>78.16673283106049</v>
       </c>
       <c r="O7" t="n">
-        <v>8.802183767727961</v>
+        <v>8.841195215074741</v>
       </c>
       <c r="P7" t="n">
-        <v>317.8350130153592</v>
+        <v>317.7319406255743</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34864,28 +34915,28 @@
         <v>0.0641</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2277964624893227</v>
+        <v>-0.2239159640644462</v>
       </c>
       <c r="J8" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0402793027093058</v>
+        <v>0.03901479754780757</v>
       </c>
       <c r="M8" t="n">
-        <v>5.571182081826272</v>
+        <v>5.577952638356462</v>
       </c>
       <c r="N8" t="n">
-        <v>54.94890226402904</v>
+        <v>54.99162202228199</v>
       </c>
       <c r="O8" t="n">
-        <v>7.412752677921276</v>
+        <v>7.415633622441307</v>
       </c>
       <c r="P8" t="n">
-        <v>319.2991357483812</v>
+        <v>319.253479963217</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34942,28 +34993,28 @@
         <v>0.063</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1940100018078222</v>
+        <v>-0.1978598595376277</v>
       </c>
       <c r="J9" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02500377999386616</v>
+        <v>0.02601702892133806</v>
       </c>
       <c r="M9" t="n">
-        <v>5.900378302032498</v>
+        <v>5.906916060685615</v>
       </c>
       <c r="N9" t="n">
-        <v>65.05688749944269</v>
+        <v>65.08109641268508</v>
       </c>
       <c r="O9" t="n">
-        <v>8.065784989661124</v>
+        <v>8.067285566575977</v>
       </c>
       <c r="P9" t="n">
-        <v>317.5289515494821</v>
+        <v>317.5744501631589</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35020,28 +35071,28 @@
         <v>0.0619</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2247523053117438</v>
+        <v>-0.2201658323753399</v>
       </c>
       <c r="J10" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02725194396790731</v>
+        <v>0.02620655723917487</v>
       </c>
       <c r="M10" t="n">
-        <v>6.647809126733758</v>
+        <v>6.654806755457041</v>
       </c>
       <c r="N10" t="n">
-        <v>80.22967118423742</v>
+        <v>80.29558333403862</v>
       </c>
       <c r="O10" t="n">
-        <v>8.957101717868198</v>
+        <v>8.96078028600404</v>
       </c>
       <c r="P10" t="n">
-        <v>320.1313537595175</v>
+        <v>320.0774436775399</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35098,28 +35149,28 @@
         <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1876088470487722</v>
+        <v>-0.1918410606807377</v>
       </c>
       <c r="J11" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01342913771472964</v>
+        <v>0.01406216330309162</v>
       </c>
       <c r="M11" t="n">
-        <v>8.059428657609155</v>
+        <v>8.061992626382777</v>
       </c>
       <c r="N11" t="n">
-        <v>115.2484837164933</v>
+        <v>115.2168086385905</v>
       </c>
       <c r="O11" t="n">
-        <v>10.73538465619622</v>
+        <v>10.73390928965726</v>
       </c>
       <c r="P11" t="n">
-        <v>326.8599961749658</v>
+        <v>326.9097249318933</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35176,28 +35227,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1214024080746365</v>
+        <v>-0.1288339824992993</v>
       </c>
       <c r="J12" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K12" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00390263939970803</v>
+        <v>0.004393344652478648</v>
       </c>
       <c r="M12" t="n">
-        <v>9.679568849813545</v>
+        <v>9.692774879304466</v>
       </c>
       <c r="N12" t="n">
-        <v>165.8671963113504</v>
+        <v>166.1434821387768</v>
       </c>
       <c r="O12" t="n">
-        <v>12.87894391288938</v>
+        <v>12.88966571090099</v>
       </c>
       <c r="P12" t="n">
-        <v>335.0474640296626</v>
+        <v>335.1357063506169</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35254,28 +35305,28 @@
         <v>0.0317</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09265453117410476</v>
+        <v>0.09172077011284055</v>
       </c>
       <c r="J13" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K13" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001260747483953994</v>
+        <v>0.001240550526193207</v>
       </c>
       <c r="M13" t="n">
-        <v>13.51417208267371</v>
+        <v>13.48830284117302</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881833269623</v>
+        <v>301.2114673382293</v>
       </c>
       <c r="O13" t="n">
-        <v>17.37492973588562</v>
+        <v>17.35544489024206</v>
       </c>
       <c r="P13" t="n">
-        <v>339.581181939537</v>
+        <v>339.5922507251125</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35332,28 +35383,28 @@
         <v>0.0312</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3506654548492872</v>
+        <v>0.3525868871152634</v>
       </c>
       <c r="J14" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009539459078932722</v>
+        <v>0.009683594335628376</v>
       </c>
       <c r="M14" t="n">
-        <v>18.41398447560303</v>
+        <v>18.38149247165326</v>
       </c>
       <c r="N14" t="n">
-        <v>547.5101159324437</v>
+        <v>546.3083855818102</v>
       </c>
       <c r="O14" t="n">
-        <v>23.39893407684298</v>
+        <v>23.37324080186165</v>
       </c>
       <c r="P14" t="n">
-        <v>314.3547579708455</v>
+        <v>314.3316934855201</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35391,7 +35442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O600"/>
+  <dimension ref="A1:O601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38629,7 +38680,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-45.18296001003074,170.9048763037039</t>
+          <t>-45.18296001003073,170.9048763037039</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -45507,7 +45558,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-45.18284564921654,170.90579694813988</t>
+          <t>-45.182845649216546,170.90579694813988</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -50614,7 +50665,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>-45.184000068994195,170.9024486962469</t>
+          <t>-45.1840000689942,170.9024486962469</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -52518,7 +52569,7 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>-45.187307264756804,170.89967930290462</t>
+          <t>-45.1873072647568,170.89967930290462</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
@@ -61428,7 +61479,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>-45.18352710004255,170.9031120363281</t>
+          <t>-45.183527100042554,170.9031120363281</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -74463,6 +74514,63 @@
         </is>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:19:47+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr"/>
+      <c r="C601" t="inlineStr"/>
+      <c r="D601" t="inlineStr"/>
+      <c r="E601" t="inlineStr"/>
+      <c r="F601" t="inlineStr"/>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>-45.18462193619829,170.90205002749326</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>-45.18508409493031,170.90140164679795</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>-45.18556489457068,170.90074270897858</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>-45.18622646626832,170.90056990420337</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>-45.18673100666677,170.9000375140151</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>-45.187275171500815,170.89960678379927</t>
+        </is>
+      </c>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>-45.18794213339687,170.8994200128381</t>
+        </is>
+      </c>
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>-45.18856031667568,170.8992195106551</t>
+        </is>
+      </c>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0476/nzd0476.xlsx
+++ b/data/nzd0476/nzd0476.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O601"/>
+  <dimension ref="A1:O603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27535,6 +27535,92 @@
         </is>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>291.88</v>
+      </c>
+      <c r="C602" t="n">
+        <v>297.14</v>
+      </c>
+      <c r="D602" t="n">
+        <v>303.61</v>
+      </c>
+      <c r="E602" t="n">
+        <v>301.9933333333333</v>
+      </c>
+      <c r="F602" t="n">
+        <v>308.9963636363636</v>
+      </c>
+      <c r="G602" t="n">
+        <v>310.2133333333333</v>
+      </c>
+      <c r="H602" t="n">
+        <v>314.7033333333333</v>
+      </c>
+      <c r="I602" t="n">
+        <v>310.0633333333333</v>
+      </c>
+      <c r="J602" t="n">
+        <v>308.1463636363636</v>
+      </c>
+      <c r="K602" t="n">
+        <v>312.61</v>
+      </c>
+      <c r="L602" t="n">
+        <v>320.7142857142857</v>
+      </c>
+      <c r="M602" t="n">
+        <v>338.44</v>
+      </c>
+      <c r="N602" t="n">
+        <v>318.72</v>
+      </c>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="n">
+        <v>281.4</v>
+      </c>
+      <c r="E603" t="n">
+        <v>280.6233333333333</v>
+      </c>
+      <c r="F603" t="n">
+        <v>275.5045454545455</v>
+      </c>
+      <c r="G603" t="n">
+        <v>280.8533333333333</v>
+      </c>
+      <c r="H603" t="n">
+        <v>289.2533333333333</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr"/>
+      <c r="M603" t="inlineStr"/>
+      <c r="N603" t="inlineStr"/>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27546,7 +27632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B672"/>
+  <dimension ref="A1:B674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34274,6 +34360,26 @@
       </c>
       <c r="B672" t="n">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -34447,28 +34553,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3350956094684775</v>
+        <v>0.3189697492330341</v>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K2" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01147630138587141</v>
+        <v>0.01039085825043373</v>
       </c>
       <c r="M2" t="n">
-        <v>16.78340534524928</v>
+        <v>16.80452693642349</v>
       </c>
       <c r="N2" t="n">
-        <v>438.6937776979827</v>
+        <v>440.4032668250293</v>
       </c>
       <c r="O2" t="n">
-        <v>20.94501796843304</v>
+        <v>20.98578725769013</v>
       </c>
       <c r="P2" t="n">
-        <v>317.840138702352</v>
+        <v>318.0270796388762</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34525,28 +34631,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0250846921078845</v>
+        <v>-0.03001004476361157</v>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K3" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000296263909071004</v>
+        <v>0.0004245149800242709</v>
       </c>
       <c r="M3" t="n">
-        <v>7.223960661798215</v>
+        <v>7.233043005355766</v>
       </c>
       <c r="N3" t="n">
-        <v>94.60095536213495</v>
+        <v>94.66245868487593</v>
       </c>
       <c r="O3" t="n">
-        <v>9.726302245053613</v>
+        <v>9.729463432526787</v>
       </c>
       <c r="P3" t="n">
-        <v>308.9208622373512</v>
+        <v>308.9786650926916</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34603,28 +34709,28 @@
         <v>0.0519</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1683355931009273</v>
+        <v>-0.18273151742868</v>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K4" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01609629879874241</v>
+        <v>0.01865868025653328</v>
       </c>
       <c r="M4" t="n">
-        <v>6.466054868467012</v>
+        <v>6.510663574370121</v>
       </c>
       <c r="N4" t="n">
-        <v>76.06081969260127</v>
+        <v>77.40438678382323</v>
       </c>
       <c r="O4" t="n">
-        <v>8.72128543808774</v>
+        <v>8.797976289114629</v>
       </c>
       <c r="P4" t="n">
-        <v>313.4558048451396</v>
+        <v>313.6264809081395</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34681,28 +34787,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1923546815220433</v>
+        <v>-0.2071773305778102</v>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K5" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02405515734199593</v>
+        <v>0.02735057539172892</v>
       </c>
       <c r="M5" t="n">
-        <v>6.06069702550801</v>
+        <v>6.107109276317437</v>
       </c>
       <c r="N5" t="n">
-        <v>67.68000914188519</v>
+        <v>69.08691189211652</v>
       </c>
       <c r="O5" t="n">
-        <v>8.226786076098319</v>
+        <v>8.311853697708864</v>
       </c>
       <c r="P5" t="n">
-        <v>313.1058854182267</v>
+        <v>313.2786419435757</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34759,28 +34865,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2256327147408015</v>
+        <v>-0.2393112603616614</v>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K6" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02574437880487712</v>
+        <v>0.02837726314664835</v>
       </c>
       <c r="M6" t="n">
-        <v>6.754231439376184</v>
+        <v>6.802818755336198</v>
       </c>
       <c r="N6" t="n">
-        <v>87.16480160590031</v>
+        <v>89.04593699300035</v>
       </c>
       <c r="O6" t="n">
-        <v>9.336209166781789</v>
+        <v>9.436415473737915</v>
       </c>
       <c r="P6" t="n">
-        <v>313.882440970756</v>
+        <v>314.0420308380809</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34837,28 +34943,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1899129201673572</v>
+        <v>-0.2048700645644497</v>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K7" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02016190124757244</v>
+        <v>0.02294603249591898</v>
       </c>
       <c r="M7" t="n">
-        <v>6.478572412581838</v>
+        <v>6.519259082611196</v>
       </c>
       <c r="N7" t="n">
-        <v>78.16673283106049</v>
+        <v>79.99747160245268</v>
       </c>
       <c r="O7" t="n">
-        <v>8.841195215074741</v>
+        <v>8.944130567162617</v>
       </c>
       <c r="P7" t="n">
-        <v>317.7319406255743</v>
+        <v>317.9077520471347</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34915,28 +35021,28 @@
         <v>0.0641</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2239159640644462</v>
+        <v>-0.2341208486410646</v>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K8" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03901479754780757</v>
+        <v>0.04189860150820668</v>
       </c>
       <c r="M8" t="n">
-        <v>5.577952638356462</v>
+        <v>5.609029159017631</v>
       </c>
       <c r="N8" t="n">
-        <v>54.99162202228199</v>
+        <v>56.02421367767138</v>
       </c>
       <c r="O8" t="n">
-        <v>7.415633622441307</v>
+        <v>7.48493244309335</v>
       </c>
       <c r="P8" t="n">
-        <v>319.253479963217</v>
+        <v>319.3736700700441</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34993,28 +35099,28 @@
         <v>0.063</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1978598595376277</v>
+        <v>-0.198912871651059</v>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K9" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02601702892133806</v>
+        <v>0.02638414633606334</v>
       </c>
       <c r="M9" t="n">
-        <v>5.906916060685615</v>
+        <v>5.89950828482157</v>
       </c>
       <c r="N9" t="n">
-        <v>65.08109641268508</v>
+        <v>64.95355522185022</v>
       </c>
       <c r="O9" t="n">
-        <v>8.067285566575977</v>
+        <v>8.059376850715582</v>
       </c>
       <c r="P9" t="n">
-        <v>317.5744501631589</v>
+        <v>317.5868964937494</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35071,28 +35177,28 @@
         <v>0.0619</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2201658323753399</v>
+        <v>-0.2228593517595117</v>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K10" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02620655723917487</v>
+        <v>0.02691096577584429</v>
       </c>
       <c r="M10" t="n">
-        <v>6.654806755457041</v>
+        <v>6.654630404205762</v>
       </c>
       <c r="N10" t="n">
-        <v>80.29558333403862</v>
+        <v>80.20841872645144</v>
       </c>
       <c r="O10" t="n">
-        <v>8.96078028600404</v>
+        <v>8.955915292500897</v>
       </c>
       <c r="P10" t="n">
-        <v>320.0774436775399</v>
+        <v>320.109107627489</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35149,28 +35255,28 @@
         <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1918410606807377</v>
+        <v>-0.195768357508279</v>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K11" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01406216330309162</v>
+        <v>0.01466838296144779</v>
       </c>
       <c r="M11" t="n">
-        <v>8.061992626382777</v>
+        <v>8.063184932525685</v>
       </c>
       <c r="N11" t="n">
-        <v>115.2168086385905</v>
+        <v>115.1587176034831</v>
       </c>
       <c r="O11" t="n">
-        <v>10.73390928965726</v>
+        <v>10.73120298957592</v>
       </c>
       <c r="P11" t="n">
-        <v>326.9097249318933</v>
+        <v>326.9558766398099</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35227,28 +35333,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1288339824992993</v>
+        <v>-0.1335829366334025</v>
       </c>
       <c r="J12" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K12" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004393344652478648</v>
+        <v>0.004732450132216015</v>
       </c>
       <c r="M12" t="n">
-        <v>9.692774879304466</v>
+        <v>9.693897473173944</v>
       </c>
       <c r="N12" t="n">
-        <v>166.1434821387768</v>
+        <v>166.0513650485162</v>
       </c>
       <c r="O12" t="n">
-        <v>12.88966571090099</v>
+        <v>12.8860919230198</v>
       </c>
       <c r="P12" t="n">
-        <v>335.1357063506169</v>
+        <v>335.1921024132134</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35305,28 +35411,28 @@
         <v>0.0317</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09172077011284055</v>
+        <v>0.09012038905389266</v>
       </c>
       <c r="J13" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K13" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001240550526193207</v>
+        <v>0.00120247540810603</v>
       </c>
       <c r="M13" t="n">
-        <v>13.48830284117302</v>
+        <v>13.46599930196114</v>
       </c>
       <c r="N13" t="n">
-        <v>301.2114673382293</v>
+        <v>300.5563151320205</v>
       </c>
       <c r="O13" t="n">
-        <v>17.35544489024206</v>
+        <v>17.33656007205641</v>
       </c>
       <c r="P13" t="n">
-        <v>339.5922507251125</v>
+        <v>339.6112240383832</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35383,28 +35489,28 @@
         <v>0.0312</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3525868871152634</v>
+        <v>0.350373656331771</v>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K14" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009683594335628376</v>
+        <v>0.009603000865816225</v>
       </c>
       <c r="M14" t="n">
-        <v>18.38149247165326</v>
+        <v>18.35055232484254</v>
       </c>
       <c r="N14" t="n">
-        <v>546.3083855818102</v>
+        <v>545.1247512324928</v>
       </c>
       <c r="O14" t="n">
-        <v>23.37324080186165</v>
+        <v>23.34790678481677</v>
       </c>
       <c r="P14" t="n">
-        <v>314.3316934855201</v>
+        <v>314.3582638770997</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35442,7 +35548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O601"/>
+  <dimension ref="A1:O603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74571,6 +74677,128 @@
         </is>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>-45.18266149016709,170.90576932833073</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>-45.18279461985306,170.90482247744976</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>-45.18310514477656,170.90389512024208</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>-45.18349071498866,170.903071177634</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>-45.183999667852824,170.9024481347096</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>-45.18449024169658,170.90183083637464</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>-45.18504698524302,170.90132371726952</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>-45.18559260498572,170.9008125972534</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>-45.18615693434639,170.90038033966079</t>
+        </is>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>-45.18673372350269,170.9000442588439</t>
+        </is>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>-45.18730414136071,170.8996722451555</t>
+        </is>
+      </c>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>-45.18793801167877,170.8994019702451</t>
+        </is>
+      </c>
+      <c r="N602" t="inlineStr">
+        <is>
+          <t>-45.18855507001077,170.8991086655166</t>
+        </is>
+      </c>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>-45.182926861365615,170.90376739657555</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>-45.183340124408105,170.90290207225308</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>-45.183785487045924,170.9021483156272</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>-45.1843191800131,170.9015461254044</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>-45.184919069514656,170.90105509866393</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr"/>
+      <c r="M603" t="inlineStr"/>
+      <c r="N603" t="inlineStr"/>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0476/nzd0476.xlsx
+++ b/data/nzd0476/nzd0476.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O603"/>
+  <dimension ref="A1:O607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27621,6 +27621,196 @@
         </is>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:08+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr"/>
+      <c r="E604" t="inlineStr"/>
+      <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr"/>
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="n">
+        <v>306.1733333333333</v>
+      </c>
+      <c r="J604" t="n">
+        <v>306.4609090909091</v>
+      </c>
+      <c r="K604" t="n">
+        <v>321.93</v>
+      </c>
+      <c r="L604" t="n">
+        <v>327.5085714285714</v>
+      </c>
+      <c r="M604" t="n">
+        <v>336.26</v>
+      </c>
+      <c r="N604" t="n">
+        <v>319.0700000000001</v>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>309.47</v>
+      </c>
+      <c r="C605" t="n">
+        <v>311.49</v>
+      </c>
+      <c r="D605" t="n">
+        <v>312.64</v>
+      </c>
+      <c r="E605" t="n">
+        <v>319.7066666666667</v>
+      </c>
+      <c r="F605" t="n">
+        <v>320.08</v>
+      </c>
+      <c r="G605" t="n">
+        <v>323.7266666666667</v>
+      </c>
+      <c r="H605" t="n">
+        <v>321.1366666666667</v>
+      </c>
+      <c r="I605" t="n">
+        <v>320.1966666666667</v>
+      </c>
+      <c r="J605" t="n">
+        <v>319.38</v>
+      </c>
+      <c r="K605" t="n">
+        <v>327.42</v>
+      </c>
+      <c r="L605" t="n">
+        <v>343.1857142857143</v>
+      </c>
+      <c r="M605" t="n">
+        <v>357.3</v>
+      </c>
+      <c r="N605" t="n">
+        <v>349.17</v>
+      </c>
+      <c r="O605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>300.58</v>
+      </c>
+      <c r="C606" t="n">
+        <v>304.93</v>
+      </c>
+      <c r="D606" t="n">
+        <v>303.43</v>
+      </c>
+      <c r="E606" t="n">
+        <v>307.5833333333333</v>
+      </c>
+      <c r="F606" t="n">
+        <v>309.1718181818182</v>
+      </c>
+      <c r="G606" t="n">
+        <v>311.0833333333333</v>
+      </c>
+      <c r="H606" t="n">
+        <v>308.1533333333333</v>
+      </c>
+      <c r="I606" t="n">
+        <v>307.8433333333333</v>
+      </c>
+      <c r="J606" t="n">
+        <v>303.3418181818182</v>
+      </c>
+      <c r="K606" t="n">
+        <v>316.28</v>
+      </c>
+      <c r="L606" t="n">
+        <v>330.5028571428572</v>
+      </c>
+      <c r="M606" t="n">
+        <v>342.67</v>
+      </c>
+      <c r="N606" t="n">
+        <v>336.49</v>
+      </c>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>306.34</v>
+      </c>
+      <c r="C607" t="n">
+        <v>304.63</v>
+      </c>
+      <c r="D607" t="n">
+        <v>310.59</v>
+      </c>
+      <c r="E607" t="n">
+        <v>311.86</v>
+      </c>
+      <c r="F607" t="n">
+        <v>314.3545454545454</v>
+      </c>
+      <c r="G607" t="n">
+        <v>312.85</v>
+      </c>
+      <c r="H607" t="n">
+        <v>314.35</v>
+      </c>
+      <c r="I607" t="n">
+        <v>315.29</v>
+      </c>
+      <c r="J607" t="n">
+        <v>312.5345454545454</v>
+      </c>
+      <c r="K607" t="n">
+        <v>327.87</v>
+      </c>
+      <c r="L607" t="n">
+        <v>335.9314285714286</v>
+      </c>
+      <c r="M607" t="n">
+        <v>345.05</v>
+      </c>
+      <c r="N607" t="n">
+        <v>302.46</v>
+      </c>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27632,7 +27822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B674"/>
+  <dimension ref="A1:B680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34380,6 +34570,66 @@
       </c>
       <c r="B674" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>-0.49</v>
       </c>
     </row>
   </sheetData>
@@ -34553,28 +34803,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3189697492330341</v>
+        <v>0.2901400694572607</v>
       </c>
       <c r="J2" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K2" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01039085825043373</v>
+        <v>0.008666924561095524</v>
       </c>
       <c r="M2" t="n">
-        <v>16.80452693642349</v>
+        <v>16.79758764321607</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4032668250293</v>
+        <v>440.3895443390749</v>
       </c>
       <c r="O2" t="n">
-        <v>20.98578725769013</v>
+        <v>20.98546030801028</v>
       </c>
       <c r="P2" t="n">
-        <v>318.0270796388762</v>
+        <v>318.3627404598702</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34631,28 +34881,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03001004476361157</v>
+        <v>-0.03157904180434423</v>
       </c>
       <c r="J3" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K3" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004245149800242709</v>
+        <v>0.0004754796775326975</v>
       </c>
       <c r="M3" t="n">
-        <v>7.233043005355766</v>
+        <v>7.208479359521017</v>
       </c>
       <c r="N3" t="n">
-        <v>94.66245868487593</v>
+        <v>94.12869791751163</v>
       </c>
       <c r="O3" t="n">
-        <v>9.729463432526787</v>
+        <v>9.701994532956181</v>
       </c>
       <c r="P3" t="n">
-        <v>308.9786650926916</v>
+        <v>308.9971998852058</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34709,28 +34959,28 @@
         <v>0.0519</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.18273151742868</v>
+        <v>-0.1827538598132299</v>
       </c>
       <c r="J4" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K4" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01865868025653328</v>
+        <v>0.0188584933505791</v>
       </c>
       <c r="M4" t="n">
-        <v>6.510663574370121</v>
+        <v>6.49263956811932</v>
       </c>
       <c r="N4" t="n">
-        <v>77.40438678382323</v>
+        <v>77.01711481929829</v>
       </c>
       <c r="O4" t="n">
-        <v>8.797976289114629</v>
+        <v>8.775939540544835</v>
       </c>
       <c r="P4" t="n">
-        <v>313.6264809081395</v>
+        <v>313.6267809126105</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34787,28 +35037,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2071773305778102</v>
+        <v>-0.2004827648978589</v>
       </c>
       <c r="J5" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K5" t="n">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02735057539172892</v>
+        <v>0.02584426633464865</v>
       </c>
       <c r="M5" t="n">
-        <v>6.107109276317437</v>
+        <v>6.10201481619185</v>
       </c>
       <c r="N5" t="n">
-        <v>69.08691189211652</v>
+        <v>68.9708126636869</v>
       </c>
       <c r="O5" t="n">
-        <v>8.311853697708864</v>
+        <v>8.304866805896824</v>
       </c>
       <c r="P5" t="n">
-        <v>313.2786419435757</v>
+        <v>313.200405908521</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34865,28 +35115,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2393112603616614</v>
+        <v>-0.2307365857346807</v>
       </c>
       <c r="J6" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K6" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02837726314664835</v>
+        <v>0.02662394074535523</v>
       </c>
       <c r="M6" t="n">
-        <v>6.802818755336198</v>
+        <v>6.797565685053172</v>
       </c>
       <c r="N6" t="n">
-        <v>89.04593699300035</v>
+        <v>88.88444946942271</v>
       </c>
       <c r="O6" t="n">
-        <v>9.436415473737915</v>
+        <v>9.427854977110261</v>
       </c>
       <c r="P6" t="n">
-        <v>314.0420308380809</v>
+        <v>313.9417016926328</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34943,28 +35193,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2048700645644497</v>
+        <v>-0.2006745190194682</v>
       </c>
       <c r="J7" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K7" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02294603249591898</v>
+        <v>0.02222272072260023</v>
       </c>
       <c r="M7" t="n">
-        <v>6.519259082611196</v>
+        <v>6.506463693166575</v>
       </c>
       <c r="N7" t="n">
-        <v>79.99747160245268</v>
+        <v>79.75654486286538</v>
       </c>
       <c r="O7" t="n">
-        <v>8.944130567162617</v>
+        <v>8.93065198419832</v>
       </c>
       <c r="P7" t="n">
-        <v>317.9077520471347</v>
+        <v>317.8583421414149</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35021,28 +35271,28 @@
         <v>0.0641</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2341208486410646</v>
+        <v>-0.2325133066172648</v>
       </c>
       <c r="J8" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K8" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04189860150820668</v>
+        <v>0.0416971378516594</v>
       </c>
       <c r="M8" t="n">
-        <v>5.609029159017631</v>
+        <v>5.602836082399942</v>
       </c>
       <c r="N8" t="n">
-        <v>56.02421367767138</v>
+        <v>55.85272653402613</v>
       </c>
       <c r="O8" t="n">
-        <v>7.48493244309335</v>
+        <v>7.473468173079091</v>
       </c>
       <c r="P8" t="n">
-        <v>319.3736700700441</v>
+        <v>319.3547377291828</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35099,28 +35349,28 @@
         <v>0.063</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.198912871651059</v>
+        <v>-0.1990284789192306</v>
       </c>
       <c r="J9" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K9" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02638414633606334</v>
+        <v>0.02671346864095181</v>
       </c>
       <c r="M9" t="n">
-        <v>5.89950828482157</v>
+        <v>5.894984834807375</v>
       </c>
       <c r="N9" t="n">
-        <v>64.95355522185022</v>
+        <v>64.67393626786118</v>
       </c>
       <c r="O9" t="n">
-        <v>8.059376850715582</v>
+        <v>8.042010710504009</v>
       </c>
       <c r="P9" t="n">
-        <v>317.5868964937494</v>
+        <v>317.588278013317</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35177,28 +35427,28 @@
         <v>0.0619</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2228593517595117</v>
+        <v>-0.2295129954011077</v>
       </c>
       <c r="J10" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K10" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02691096577584429</v>
+        <v>0.02878103465127591</v>
       </c>
       <c r="M10" t="n">
-        <v>6.654630404205762</v>
+        <v>6.654156149206076</v>
       </c>
       <c r="N10" t="n">
-        <v>80.20841872645144</v>
+        <v>79.97765410600717</v>
       </c>
       <c r="O10" t="n">
-        <v>8.955915292500897</v>
+        <v>8.943022649306394</v>
       </c>
       <c r="P10" t="n">
-        <v>320.109107627489</v>
+        <v>320.187672301988</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35255,28 +35505,28 @@
         <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.195768357508279</v>
+        <v>-0.1933172136686949</v>
       </c>
       <c r="J11" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K11" t="n">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01466838296144779</v>
+        <v>0.0145021250311218</v>
       </c>
       <c r="M11" t="n">
-        <v>8.063184932525685</v>
+        <v>8.033115720277342</v>
       </c>
       <c r="N11" t="n">
-        <v>115.1587176034831</v>
+        <v>114.4177271083132</v>
       </c>
       <c r="O11" t="n">
-        <v>10.73120298957592</v>
+        <v>10.6966222289241</v>
       </c>
       <c r="P11" t="n">
-        <v>326.9558766398099</v>
+        <v>326.9269796592856</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35333,28 +35583,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1335829366334025</v>
+        <v>-0.1292917673981004</v>
       </c>
       <c r="J12" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K12" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004732450132216015</v>
+        <v>0.004493617328506172</v>
       </c>
       <c r="M12" t="n">
-        <v>9.693897473173944</v>
+        <v>9.658573816022839</v>
       </c>
       <c r="N12" t="n">
-        <v>166.0513650485162</v>
+        <v>165.0121182574408</v>
       </c>
       <c r="O12" t="n">
-        <v>12.8860919230198</v>
+        <v>12.84570427253566</v>
       </c>
       <c r="P12" t="n">
-        <v>335.1921024132134</v>
+        <v>335.1409562581501</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35411,28 +35661,28 @@
         <v>0.0317</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09012038905389266</v>
+        <v>0.09616800437422204</v>
       </c>
       <c r="J13" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K13" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00120247540810603</v>
+        <v>0.001388626890994837</v>
       </c>
       <c r="M13" t="n">
-        <v>13.46599930196114</v>
+        <v>13.39935435855384</v>
       </c>
       <c r="N13" t="n">
-        <v>300.5563151320205</v>
+        <v>298.4776346924169</v>
       </c>
       <c r="O13" t="n">
-        <v>17.33656007205641</v>
+        <v>17.27650528007377</v>
       </c>
       <c r="P13" t="n">
-        <v>339.6112240383832</v>
+        <v>339.5392627875365</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35489,28 +35739,28 @@
         <v>0.0312</v>
       </c>
       <c r="I14" t="n">
-        <v>0.350373656331771</v>
+        <v>0.3565953954340081</v>
       </c>
       <c r="J14" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K14" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009603000865816225</v>
+        <v>0.0100585456634491</v>
       </c>
       <c r="M14" t="n">
-        <v>18.35055232484254</v>
+        <v>18.32999420877655</v>
       </c>
       <c r="N14" t="n">
-        <v>545.1247512324928</v>
+        <v>543.1357147245135</v>
       </c>
       <c r="O14" t="n">
-        <v>23.34790678481677</v>
+        <v>23.30527225167116</v>
       </c>
       <c r="P14" t="n">
-        <v>314.3582638770997</v>
+        <v>314.283447785922</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35548,7 +35798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O603"/>
+  <dimension ref="A1:O607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74799,6 +75049,286 @@
         </is>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:08+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr"/>
+      <c r="E604" t="inlineStr"/>
+      <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr"/>
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>-45.185575485851246,170.90076942116443</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>-45.186149951004225,170.90036130108103</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>-45.18677523314409,170.90014731106297</t>
+        </is>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>-45.18733657555794,170.89974553483285</t>
+        </is>
+      </c>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>-45.18793198124052,170.89937557236223</t>
+        </is>
+      </c>
+      <c r="N604" t="inlineStr">
+        <is>
+          <t>-45.18855528036023,170.89911310947932</t>
+        </is>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-45.18281889335909,170.9057929353396</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-45.18292046020784,170.90486343218146</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-45.1831776300693,170.90394704953877</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>-45.18361553751064,170.9032113477017</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>-45.18407054774962,170.90254735602565</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>-45.18456897489823,170.90196187898886</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>-45.18507932009759,170.9013916197423</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>-45.18563719974294,170.90092506979377</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>-45.186203478581874,170.90050723284023</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>-45.18679968459648,170.9002080146409</t>
+        </is>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>-45.187411414088366,170.8999146438425</t>
+        </is>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>-45.18799018301749,170.89963034850052</t>
+        </is>
+      </c>
+      <c r="N605" t="inlineStr">
+        <is>
+          <t>-45.18857336976824,170.89949529041763</t>
+        </is>
+      </c>
+      <c r="O605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-45.182739341661396,170.9057810043242</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-45.18286293319024,170.90484470999718</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-45.183103699886786,170.9038940851079</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-45.183530106682916,170.903115412646</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>-45.18400078988595,170.90244970538635</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>-45.18449531061204,170.90183927299972</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>-45.185014063964836,170.90125458348464</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>-45.18558283519883,170.90078795691147</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>-45.1861370276697,170.9003260684252</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>-45.18675006904826,170.90008483840126</t>
+        </is>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>-45.187350869504186,170.89977783409506</t>
+        </is>
+      </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>-45.18794971292485,170.89945319184164</t>
+        </is>
+      </c>
+      <c r="N606" t="inlineStr">
+        <is>
+          <t>-45.18856574953521,170.8993342919008</t>
+        </is>
+      </c>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-45.18279088471881,170.90578873465256</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-45.18286030238145,170.90484385380057</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>-45.18316117438462,170.90393526048445</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>-45.18356024354951,170.90314925497705</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>-45.18403393345629,170.90249610141416</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>-45.184505603810194,170.90185640484833</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>-45.18504520933795,170.90131998791315</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>-45.18561560650557,170.9008706093835</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>-45.18617511588132,170.9004299077653</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>-45.18680168881248,170.90021299034635</t>
+        </is>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>-45.18737678407875,170.89983639195952</t>
+        </is>
+      </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>-45.1879562965947,170.8994820115675</t>
+        </is>
+      </c>
+      <c r="N607" t="inlineStr">
+        <is>
+          <t>-45.188545297585996,170.89890221174952</t>
+        </is>
+      </c>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0476/nzd0476.xlsx
+++ b/data/nzd0476/nzd0476.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O607"/>
+  <dimension ref="A1:O609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27811,6 +27811,108 @@
         </is>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>311.73</v>
+      </c>
+      <c r="C608" t="n">
+        <v>303.27</v>
+      </c>
+      <c r="D608" t="n">
+        <v>308.8</v>
+      </c>
+      <c r="E608" t="n">
+        <v>307.9133333333333</v>
+      </c>
+      <c r="F608" t="n">
+        <v>308.9363636363636</v>
+      </c>
+      <c r="G608" t="n">
+        <v>314.6033333333333</v>
+      </c>
+      <c r="H608" t="n">
+        <v>320.0233333333333</v>
+      </c>
+      <c r="I608" t="n">
+        <v>319.6433333333333</v>
+      </c>
+      <c r="J608" t="n">
+        <v>319.7663636363636</v>
+      </c>
+      <c r="K608" t="n">
+        <v>328.76</v>
+      </c>
+      <c r="L608" t="n">
+        <v>343.7928571428571</v>
+      </c>
+      <c r="M608" t="n">
+        <v>367.73</v>
+      </c>
+      <c r="N608" t="n">
+        <v>331.98</v>
+      </c>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>316.85</v>
+      </c>
+      <c r="C609" t="n">
+        <v>305.93</v>
+      </c>
+      <c r="D609" t="n">
+        <v>309.2</v>
+      </c>
+      <c r="E609" t="n">
+        <v>304.48</v>
+      </c>
+      <c r="F609" t="n">
+        <v>310.9563636363636</v>
+      </c>
+      <c r="G609" t="n">
+        <v>312.68</v>
+      </c>
+      <c r="H609" t="n">
+        <v>313.08</v>
+      </c>
+      <c r="I609" t="n">
+        <v>310.54</v>
+      </c>
+      <c r="J609" t="n">
+        <v>314.6363636363636</v>
+      </c>
+      <c r="K609" t="n">
+        <v>320.89</v>
+      </c>
+      <c r="L609" t="n">
+        <v>335.1085714285715</v>
+      </c>
+      <c r="M609" t="n">
+        <v>359.14</v>
+      </c>
+      <c r="N609" t="n">
+        <v>314.87</v>
+      </c>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27822,7 +27924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B680"/>
+  <dimension ref="A1:B683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34630,6 +34732,36 @@
       </c>
       <c r="B680" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -34803,28 +34935,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2901400694572607</v>
+        <v>0.2794853346304544</v>
       </c>
       <c r="J2" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K2" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008666924561095524</v>
+        <v>0.008105185177729735</v>
       </c>
       <c r="M2" t="n">
-        <v>16.79758764321607</v>
+        <v>16.76231056807831</v>
       </c>
       <c r="N2" t="n">
-        <v>440.3895443390749</v>
+        <v>439.0336725236078</v>
       </c>
       <c r="O2" t="n">
-        <v>20.98546030801028</v>
+        <v>20.95313037528302</v>
       </c>
       <c r="P2" t="n">
-        <v>318.3627404598702</v>
+        <v>318.4871958439282</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34881,28 +35013,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03157904180434423</v>
+        <v>-0.03470290679530499</v>
       </c>
       <c r="J3" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K3" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004754796775326975</v>
+        <v>0.0005784685145585611</v>
       </c>
       <c r="M3" t="n">
-        <v>7.208479359521017</v>
+        <v>7.193152296496555</v>
       </c>
       <c r="N3" t="n">
-        <v>94.12869791751163</v>
+        <v>93.78947840962739</v>
       </c>
       <c r="O3" t="n">
-        <v>9.701994532956181</v>
+        <v>9.684496807249584</v>
       </c>
       <c r="P3" t="n">
-        <v>308.9971998852058</v>
+        <v>309.0341329243035</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34959,28 +35091,28 @@
         <v>0.0519</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1827538598132299</v>
+        <v>-0.182653954595202</v>
       </c>
       <c r="J4" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K4" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0188584933505791</v>
+        <v>0.01898471138027291</v>
       </c>
       <c r="M4" t="n">
-        <v>6.49263956811932</v>
+        <v>6.466467949329587</v>
       </c>
       <c r="N4" t="n">
-        <v>77.01711481929829</v>
+        <v>76.69710553070625</v>
       </c>
       <c r="O4" t="n">
-        <v>8.775939540544835</v>
+        <v>8.757688366841233</v>
       </c>
       <c r="P4" t="n">
-        <v>313.6267809126105</v>
+        <v>313.6255862085002</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35037,28 +35169,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2004827648978589</v>
+        <v>-0.2020489732515556</v>
       </c>
       <c r="J5" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K5" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02584426633464865</v>
+        <v>0.02643806209275401</v>
       </c>
       <c r="M5" t="n">
-        <v>6.10201481619185</v>
+        <v>6.083608490293629</v>
       </c>
       <c r="N5" t="n">
-        <v>68.9708126636869</v>
+        <v>68.70285431988538</v>
       </c>
       <c r="O5" t="n">
-        <v>8.304866805896824</v>
+        <v>8.288718496841678</v>
       </c>
       <c r="P5" t="n">
-        <v>313.200405908521</v>
+        <v>313.2188062623365</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35115,28 +35247,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2307365857346807</v>
+        <v>-0.229034373269826</v>
       </c>
       <c r="J6" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K6" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02662394074535523</v>
+        <v>0.02644077429250213</v>
       </c>
       <c r="M6" t="n">
-        <v>6.797565685053172</v>
+        <v>6.776308750354998</v>
       </c>
       <c r="N6" t="n">
-        <v>88.88444946942271</v>
+        <v>88.52956313324512</v>
       </c>
       <c r="O6" t="n">
-        <v>9.427854977110261</v>
+        <v>9.409014992720817</v>
       </c>
       <c r="P6" t="n">
-        <v>313.9417016926328</v>
+        <v>313.9216921695433</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35193,28 +35325,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2006745190194682</v>
+        <v>-0.199830537744016</v>
       </c>
       <c r="J7" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K7" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02222272072260023</v>
+        <v>0.0222095414504706</v>
       </c>
       <c r="M7" t="n">
-        <v>6.506463693166575</v>
+        <v>6.483601010262267</v>
       </c>
       <c r="N7" t="n">
-        <v>79.75654486286538</v>
+        <v>79.43073590950252</v>
       </c>
       <c r="O7" t="n">
-        <v>8.93065198419832</v>
+        <v>8.912392266361627</v>
       </c>
       <c r="P7" t="n">
-        <v>317.8583421414149</v>
+        <v>317.8483607395298</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35271,28 +35403,28 @@
         <v>0.0641</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2325133066172648</v>
+        <v>-0.2296934876795413</v>
       </c>
       <c r="J8" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K8" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0416971378516594</v>
+        <v>0.04098242191613133</v>
       </c>
       <c r="M8" t="n">
-        <v>5.602836082399942</v>
+        <v>5.593581893901277</v>
       </c>
       <c r="N8" t="n">
-        <v>55.85272653402613</v>
+        <v>55.70855695217271</v>
       </c>
       <c r="O8" t="n">
-        <v>7.473468173079091</v>
+        <v>7.463816513833436</v>
       </c>
       <c r="P8" t="n">
-        <v>319.3547377291828</v>
+        <v>319.3213289908796</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35349,28 +35481,28 @@
         <v>0.063</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1990284789192306</v>
+        <v>-0.1967456127189241</v>
       </c>
       <c r="J9" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K9" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02671346864095181</v>
+        <v>0.02627436509551884</v>
       </c>
       <c r="M9" t="n">
-        <v>5.894984834807375</v>
+        <v>5.889052469256641</v>
       </c>
       <c r="N9" t="n">
-        <v>64.67393626786118</v>
+        <v>64.51701035600483</v>
       </c>
       <c r="O9" t="n">
-        <v>8.042010710504009</v>
+        <v>8.032248150798432</v>
       </c>
       <c r="P9" t="n">
-        <v>317.588278013317</v>
+        <v>317.561124016183</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35427,28 +35559,28 @@
         <v>0.0619</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2295129954011077</v>
+        <v>-0.2270035020073789</v>
       </c>
       <c r="J10" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K10" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02878103465127591</v>
+        <v>0.02836634065599364</v>
       </c>
       <c r="M10" t="n">
-        <v>6.654156149206076</v>
+        <v>6.63817015658298</v>
       </c>
       <c r="N10" t="n">
-        <v>79.97765410600717</v>
+        <v>79.70861167607673</v>
       </c>
       <c r="O10" t="n">
-        <v>8.943022649306394</v>
+        <v>8.927967947751421</v>
       </c>
       <c r="P10" t="n">
-        <v>320.187672301988</v>
+        <v>320.1579635330237</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35505,28 +35637,28 @@
         <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1933172136686949</v>
+        <v>-0.1909162338241758</v>
       </c>
       <c r="J11" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K11" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0145021250311218</v>
+        <v>0.01424436385335093</v>
       </c>
       <c r="M11" t="n">
-        <v>8.033115720277342</v>
+        <v>8.017329058421094</v>
       </c>
       <c r="N11" t="n">
-        <v>114.4177271083132</v>
+        <v>114.04957835155</v>
       </c>
       <c r="O11" t="n">
-        <v>10.6966222289241</v>
+        <v>10.67939971868972</v>
       </c>
       <c r="P11" t="n">
-        <v>326.9269796592856</v>
+        <v>326.8985776542833</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35583,28 +35715,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1292917673981004</v>
+        <v>-0.1228477053811291</v>
       </c>
       <c r="J12" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K12" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004493617328506172</v>
+        <v>0.004081792439179388</v>
       </c>
       <c r="M12" t="n">
-        <v>9.658573816022839</v>
+        <v>9.652502133936979</v>
       </c>
       <c r="N12" t="n">
-        <v>165.0121182574408</v>
+        <v>164.6449758215605</v>
       </c>
       <c r="O12" t="n">
-        <v>12.84570427253566</v>
+        <v>12.8314058396405</v>
       </c>
       <c r="P12" t="n">
-        <v>335.1409562581501</v>
+        <v>335.0638598755486</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35661,28 +35793,28 @@
         <v>0.0317</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09616800437422204</v>
+        <v>0.1152775617928952</v>
       </c>
       <c r="J13" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K13" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001388626890994837</v>
+        <v>0.001996189320160102</v>
       </c>
       <c r="M13" t="n">
-        <v>13.39935435855384</v>
+        <v>13.4314028056325</v>
       </c>
       <c r="N13" t="n">
-        <v>298.4776346924169</v>
+        <v>299.2481697868177</v>
       </c>
       <c r="O13" t="n">
-        <v>17.27650528007377</v>
+        <v>17.29879099205542</v>
       </c>
       <c r="P13" t="n">
-        <v>339.5392627875365</v>
+        <v>339.3109140359139</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35739,28 +35871,28 @@
         <v>0.0312</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3565953954340081</v>
+        <v>0.3564727791764516</v>
       </c>
       <c r="J14" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K14" t="n">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0100585456634491</v>
+        <v>0.01012969247550688</v>
       </c>
       <c r="M14" t="n">
-        <v>18.32999420877655</v>
+        <v>18.28648268637511</v>
       </c>
       <c r="N14" t="n">
-        <v>543.1357147245135</v>
+        <v>541.0430211291514</v>
       </c>
       <c r="O14" t="n">
-        <v>23.30527225167116</v>
+        <v>23.26033149224558</v>
       </c>
       <c r="P14" t="n">
-        <v>314.283447785922</v>
+        <v>314.2850178488709</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35798,7 +35930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O607"/>
+  <dimension ref="A1:O609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75329,6 +75461,160 @@
         </is>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-45.18283911685002,170.90579596842582</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-45.18284837604814,170.90483997237695</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>-45.18314680576147,170.90392496663267</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>-45.183532432131265,170.90311802401712</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>-45.183999284152364,170.902447597587</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>-45.18451581932138,170.9018734074061</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>-45.18507372432764,170.90137986873884</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>-45.18563476463728,170.9009189281965</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>-45.18620507939678,170.90051159713963</t>
+        </is>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>-45.18680565270576,170.90022283118708</t>
+        </is>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>-45.187414312422746,170.8999211930887</t>
+        </is>
+      </c>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>-45.18801903473646,170.89975664694728</t>
+        </is>
+      </c>
+      <c r="N608" t="inlineStr">
+        <is>
+          <t>-45.18856303912963,170.89927702824508</t>
+        </is>
+      </c>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-45.18288493289988,170.90580283984931</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-45.18287170255288,170.90484756398638</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-45.18315001662706,170.9039272669343</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-45.18350823806994,170.90309085521682</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>-45.18401220206631,170.90246568071836</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>-45.18450461333275,170.90185475631168</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>-45.185038826131034,170.9013065833418</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>-45.18559470270207,170.90081788789848</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>-45.186183824328154,170.90045364953295</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>-45.18677060117143,170.90013581166616</t>
+        </is>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>-45.187372855976704,170.8998275158166</t>
+        </is>
+      </c>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>-45.18799527288012,170.89965262932907</t>
+        </is>
+      </c>
+      <c r="N609" t="inlineStr">
+        <is>
+          <t>-45.18855275615539,170.89905978192945</t>
+        </is>
+      </c>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0476/nzd0476.xlsx
+++ b/data/nzd0476/nzd0476.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O609"/>
+  <dimension ref="A1:O614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27913,6 +27913,247 @@
         </is>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>332.69</v>
+      </c>
+      <c r="C610" t="n">
+        <v>317.4</v>
+      </c>
+      <c r="D610" t="n">
+        <v>318.0700000000001</v>
+      </c>
+      <c r="E610" t="n">
+        <v>320.1533333333333</v>
+      </c>
+      <c r="F610" t="n">
+        <v>319.0081818181818</v>
+      </c>
+      <c r="G610" t="n">
+        <v>329.9533333333333</v>
+      </c>
+      <c r="H610" t="n">
+        <v>322.9833333333333</v>
+      </c>
+      <c r="I610" t="n">
+        <v>320.7933333333333</v>
+      </c>
+      <c r="J610" t="n">
+        <v>326.2381818181818</v>
+      </c>
+      <c r="K610" t="n">
+        <v>336.19</v>
+      </c>
+      <c r="L610" t="n">
+        <v>344.3071428571428</v>
+      </c>
+      <c r="M610" t="n">
+        <v>342.4</v>
+      </c>
+      <c r="N610" t="n">
+        <v>328.97</v>
+      </c>
+      <c r="O610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr"/>
+      <c r="C611" t="inlineStr"/>
+      <c r="D611" t="inlineStr"/>
+      <c r="E611" t="inlineStr"/>
+      <c r="F611" t="inlineStr"/>
+      <c r="G611" t="inlineStr"/>
+      <c r="H611" t="n">
+        <v>321.66</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>317.0581818181818</v>
+      </c>
+      <c r="K611" t="n">
+        <v>359.22</v>
+      </c>
+      <c r="L611" t="n">
+        <v>317.2285714285715</v>
+      </c>
+      <c r="M611" t="n">
+        <v>328.62</v>
+      </c>
+      <c r="N611" t="n">
+        <v>301.79</v>
+      </c>
+      <c r="O611" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>317.89</v>
+      </c>
+      <c r="C612" t="n">
+        <v>312.28</v>
+      </c>
+      <c r="D612" t="n">
+        <v>312.55</v>
+      </c>
+      <c r="E612" t="n">
+        <v>310.9066666666667</v>
+      </c>
+      <c r="F612" t="n">
+        <v>315.0536363636364</v>
+      </c>
+      <c r="G612" t="n">
+        <v>318.1166666666667</v>
+      </c>
+      <c r="H612" t="n">
+        <v>317.9366666666667</v>
+      </c>
+      <c r="I612" t="n">
+        <v>314.0566666666667</v>
+      </c>
+      <c r="J612" t="n">
+        <v>319.0336363636364</v>
+      </c>
+      <c r="K612" t="n">
+        <v>330.23</v>
+      </c>
+      <c r="L612" t="n">
+        <v>340.8428571428572</v>
+      </c>
+      <c r="M612" t="n">
+        <v>359.47</v>
+      </c>
+      <c r="N612" t="n">
+        <v>344.19</v>
+      </c>
+      <c r="O612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>353.84</v>
+      </c>
+      <c r="C613" t="n">
+        <v>312.76</v>
+      </c>
+      <c r="D613" t="n">
+        <v>316.98</v>
+      </c>
+      <c r="E613" t="n">
+        <v>319.3</v>
+      </c>
+      <c r="F613" t="n">
+        <v>320.13</v>
+      </c>
+      <c r="G613" t="n">
+        <v>323.22</v>
+      </c>
+      <c r="H613" t="n">
+        <v>319.84</v>
+      </c>
+      <c r="I613" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="J613" t="n">
+        <v>319.4</v>
+      </c>
+      <c r="K613" t="n">
+        <v>322.88</v>
+      </c>
+      <c r="L613" t="n">
+        <v>332.5828571428572</v>
+      </c>
+      <c r="M613" t="n">
+        <v>339.68</v>
+      </c>
+      <c r="N613" t="n">
+        <v>317.04</v>
+      </c>
+      <c r="O613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>322.35</v>
+      </c>
+      <c r="C614" t="n">
+        <v>312.69</v>
+      </c>
+      <c r="D614" t="n">
+        <v>316.71</v>
+      </c>
+      <c r="E614" t="n">
+        <v>313.8333333333333</v>
+      </c>
+      <c r="F614" t="n">
+        <v>317.2390909090909</v>
+      </c>
+      <c r="G614" t="n">
+        <v>322.1333333333333</v>
+      </c>
+      <c r="H614" t="n">
+        <v>321.4333333333333</v>
+      </c>
+      <c r="I614" t="n">
+        <v>313.7033333333333</v>
+      </c>
+      <c r="J614" t="n">
+        <v>317.2390909090909</v>
+      </c>
+      <c r="K614" t="n">
+        <v>326.76</v>
+      </c>
+      <c r="L614" t="n">
+        <v>334.2485714285714</v>
+      </c>
+      <c r="M614" t="n">
+        <v>350.98</v>
+      </c>
+      <c r="N614" t="n">
+        <v>328.03</v>
+      </c>
+      <c r="O614" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27924,7 +28165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B683"/>
+  <dimension ref="A1:B689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34762,6 +35003,66 @@
       </c>
       <c r="B683" t="n">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -34935,28 +35236,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2794853346304544</v>
+        <v>0.2901908340710621</v>
       </c>
       <c r="J2" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K2" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008105185177729735</v>
+        <v>0.008841845308747653</v>
       </c>
       <c r="M2" t="n">
-        <v>16.76231056807831</v>
+        <v>16.72774771022765</v>
       </c>
       <c r="N2" t="n">
-        <v>439.0336725236078</v>
+        <v>437.1366951079162</v>
       </c>
       <c r="O2" t="n">
-        <v>20.95313037528302</v>
+        <v>20.9078142116271</v>
       </c>
       <c r="P2" t="n">
-        <v>318.4871958439282</v>
+        <v>318.3616758298251</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35013,28 +35314,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03470290679530499</v>
+        <v>-0.02499120321046496</v>
       </c>
       <c r="J3" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K3" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005784685145585611</v>
+        <v>0.0003039980285450827</v>
       </c>
       <c r="M3" t="n">
-        <v>7.193152296496555</v>
+        <v>7.178644139299916</v>
       </c>
       <c r="N3" t="n">
-        <v>93.78947840962739</v>
+        <v>93.29807335951057</v>
       </c>
       <c r="O3" t="n">
-        <v>9.684496807249584</v>
+        <v>9.659092781390527</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0341329243035</v>
+        <v>308.91891248121</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35091,28 +35392,28 @@
         <v>0.0519</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.182653954595202</v>
+        <v>-0.1705114719884547</v>
       </c>
       <c r="J4" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K4" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01898471138027291</v>
+        <v>0.01674421751364208</v>
       </c>
       <c r="M4" t="n">
-        <v>6.466467949329587</v>
+        <v>6.469180548921487</v>
       </c>
       <c r="N4" t="n">
-        <v>76.69710553070625</v>
+        <v>76.51909910185029</v>
       </c>
       <c r="O4" t="n">
-        <v>8.757688366841233</v>
+        <v>8.74751959711153</v>
       </c>
       <c r="P4" t="n">
-        <v>313.6255862085002</v>
+        <v>313.4801131046736</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35169,28 +35470,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2020489732515556</v>
+        <v>-0.1882377347735815</v>
       </c>
       <c r="J5" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K5" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02643806209275401</v>
+        <v>0.02317318428337556</v>
       </c>
       <c r="M5" t="n">
-        <v>6.083608490293629</v>
+        <v>6.099636483818962</v>
       </c>
       <c r="N5" t="n">
-        <v>68.70285431988538</v>
+        <v>68.7858963555713</v>
       </c>
       <c r="O5" t="n">
-        <v>8.288718496841678</v>
+        <v>8.293726325094848</v>
       </c>
       <c r="P5" t="n">
-        <v>313.2188062623365</v>
+        <v>313.0561510659055</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35247,28 +35548,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.229034373269826</v>
+        <v>-0.2124110824411539</v>
       </c>
       <c r="J6" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K6" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02644077429250213</v>
+        <v>0.02296828707948539</v>
       </c>
       <c r="M6" t="n">
-        <v>6.776308750354998</v>
+        <v>6.792682684201985</v>
       </c>
       <c r="N6" t="n">
-        <v>88.52956313324512</v>
+        <v>88.61998926258715</v>
       </c>
       <c r="O6" t="n">
-        <v>9.409014992720817</v>
+        <v>9.413819058309286</v>
       </c>
       <c r="P6" t="n">
-        <v>313.9216921695433</v>
+        <v>313.7256893456438</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35325,28 +35626,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.199830537744016</v>
+        <v>-0.1818520245158974</v>
       </c>
       <c r="J7" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K7" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0222095414504706</v>
+        <v>0.01850183274403283</v>
       </c>
       <c r="M7" t="n">
-        <v>6.483601010262267</v>
+        <v>6.523111770521967</v>
       </c>
       <c r="N7" t="n">
-        <v>79.43073590950252</v>
+        <v>79.85096131437496</v>
       </c>
       <c r="O7" t="n">
-        <v>8.912392266361627</v>
+        <v>8.935936510202776</v>
       </c>
       <c r="P7" t="n">
-        <v>317.8483607395298</v>
+        <v>317.634850828599</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35403,28 +35704,28 @@
         <v>0.0641</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2296934876795413</v>
+        <v>-0.213813481960392</v>
       </c>
       <c r="J8" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K8" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04098242191613133</v>
+        <v>0.03602273620855712</v>
       </c>
       <c r="M8" t="n">
-        <v>5.593581893901277</v>
+        <v>5.610629939761763</v>
       </c>
       <c r="N8" t="n">
-        <v>55.70855695217271</v>
+        <v>55.71707314870864</v>
       </c>
       <c r="O8" t="n">
-        <v>7.463816513833436</v>
+        <v>7.464386990819048</v>
       </c>
       <c r="P8" t="n">
-        <v>319.3213289908796</v>
+        <v>319.1323717279109</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35481,28 +35782,28 @@
         <v>0.063</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1967456127189241</v>
+        <v>-0.1899934353971066</v>
       </c>
       <c r="J9" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K9" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02627436509551884</v>
+        <v>0.02484663686736421</v>
       </c>
       <c r="M9" t="n">
-        <v>5.889052469256641</v>
+        <v>5.871975370222851</v>
       </c>
       <c r="N9" t="n">
-        <v>64.51701035600483</v>
+        <v>64.17384056166253</v>
       </c>
       <c r="O9" t="n">
-        <v>8.032248150798432</v>
+        <v>8.010857667045554</v>
       </c>
       <c r="P9" t="n">
-        <v>317.561124016183</v>
+        <v>317.4804417655197</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35559,28 +35860,28 @@
         <v>0.0619</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2270035020073789</v>
+        <v>-0.2155321122507434</v>
       </c>
       <c r="J10" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K10" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02836634065599364</v>
+        <v>0.02599666522557686</v>
       </c>
       <c r="M10" t="n">
-        <v>6.63817015658298</v>
+        <v>6.622593770755445</v>
       </c>
       <c r="N10" t="n">
-        <v>79.70861167607673</v>
+        <v>79.31113218898304</v>
       </c>
       <c r="O10" t="n">
-        <v>8.927967947751421</v>
+        <v>8.905679771302303</v>
       </c>
       <c r="P10" t="n">
-        <v>320.1579635330237</v>
+        <v>320.0216493516017</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35637,28 +35938,28 @@
         <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1909162338241758</v>
+        <v>-0.1643985604085402</v>
       </c>
       <c r="J11" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K11" t="n">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01424436385335093</v>
+        <v>0.01049393845938862</v>
       </c>
       <c r="M11" t="n">
-        <v>8.017329058421094</v>
+        <v>8.074925203844723</v>
       </c>
       <c r="N11" t="n">
-        <v>114.04957835155</v>
+        <v>116.2467151485057</v>
       </c>
       <c r="O11" t="n">
-        <v>10.67939971868972</v>
+        <v>10.78177699400733</v>
       </c>
       <c r="P11" t="n">
-        <v>326.8985776542833</v>
+        <v>326.5835942353797</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35715,28 +36016,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1228477053811291</v>
+        <v>-0.1187852918151655</v>
       </c>
       <c r="J12" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K12" t="n">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004081792439179388</v>
+        <v>0.003867854392447967</v>
       </c>
       <c r="M12" t="n">
-        <v>9.652502133936979</v>
+        <v>9.634766229009639</v>
       </c>
       <c r="N12" t="n">
-        <v>164.6449758215605</v>
+        <v>163.8861522905272</v>
       </c>
       <c r="O12" t="n">
-        <v>12.8314058396405</v>
+        <v>12.80180269690668</v>
       </c>
       <c r="P12" t="n">
-        <v>335.0638598755486</v>
+        <v>335.015109455144</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35793,28 +36094,28 @@
         <v>0.0317</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1152775617928952</v>
+        <v>0.1194796235671375</v>
       </c>
       <c r="J13" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K13" t="n">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001996189320160102</v>
+        <v>0.002178112423637635</v>
       </c>
       <c r="M13" t="n">
-        <v>13.4314028056325</v>
+        <v>13.37551621700609</v>
       </c>
       <c r="N13" t="n">
-        <v>299.2481697868177</v>
+        <v>297.1841797379967</v>
       </c>
       <c r="O13" t="n">
-        <v>17.29879099205542</v>
+        <v>17.23903070761221</v>
       </c>
       <c r="P13" t="n">
-        <v>339.3109140359139</v>
+        <v>339.2604486133025</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35871,28 +36172,28 @@
         <v>0.0312</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3564727791764516</v>
+        <v>0.3574645791398313</v>
       </c>
       <c r="J14" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K14" t="n">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01012969247550688</v>
+        <v>0.01035505842902018</v>
       </c>
       <c r="M14" t="n">
-        <v>18.28648268637511</v>
+        <v>18.21461111268884</v>
       </c>
       <c r="N14" t="n">
-        <v>541.0430211291514</v>
+        <v>537.2677910675256</v>
       </c>
       <c r="O14" t="n">
-        <v>23.26033149224558</v>
+        <v>23.17903775111309</v>
       </c>
       <c r="P14" t="n">
-        <v>314.2850178488709</v>
+        <v>314.2729861008299</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35930,7 +36231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O609"/>
+  <dimension ref="A1:O614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75615,6 +75916,363 @@
         </is>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-45.183026676300585,170.9058240983773</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-45.18297228713733,170.90488029930185</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-45.183221217560295,170.90397827618816</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-45.18361868508436,170.9032148822954</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>-45.18406369347187,170.90253776104018</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>-45.184605253492954,170.90202226085827</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>-45.185088601701466,170.90141111093274</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>-45.18563982554931,170.90093169236007</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>-45.18623189396393,170.9005847017587</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>-45.18683874450162,170.90030498567552</t>
+        </is>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>-45.187416767482205,170.89992674068603</t>
+        </is>
+      </c>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>-45.18794896603746,170.89944992237739</t>
+        </is>
+      </c>
+      <c r="N610" t="inlineStr">
+        <is>
+          <t>-45.188561230173384,170.89923881015474</t>
+        </is>
+      </c>
+      <c r="O610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr"/>
+      <c r="C611" t="inlineStr"/>
+      <c r="D611" t="inlineStr"/>
+      <c r="E611" t="inlineStr"/>
+      <c r="F611" t="inlineStr"/>
+      <c r="G611" t="inlineStr"/>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>-45.18508195044414,170.90139714341836</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>-45.186193858622495,170.90048100597335</t>
+        </is>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>-45.18694131534152,170.9005596320328</t>
+        </is>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>-45.187287501426816,170.89963464493326</t>
+        </is>
+      </c>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>-45.187910846996644,170.89928305872658</t>
+        </is>
+      </c>
+      <c r="N611" t="inlineStr">
+        <is>
+          <t>-45.18854489490123,170.89889370473878</t>
+        </is>
+      </c>
+      <c r="O611" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-45.18289423928492,170.90580423560843</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-45.18292738800396,170.90486568683716</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>-45.183176907624635,170.9039465319704</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>-45.18355352558943,170.90314171100928</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>-45.184038404145234,170.90250235971425</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>-45.184536289178666,170.9019074771886</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>-45.18506323644426,170.90135784440932</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>-45.185610178853594,170.90085692029237</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>-45.18620204349824,170.90050332037438</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>-45.186812199808564,170.90023908516298</t>
+        </is>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>-45.18740022992396,170.8998893714633</t>
+        </is>
+      </c>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>-45.187996185735464,170.8996566253477</t>
+        </is>
+      </c>
+      <c r="N612" t="inlineStr">
+        <is>
+          <t>-45.18857037699078,170.89943205913283</t>
+        </is>
+      </c>
+      <c r="O612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-45.183215935946606,170.9058524834886</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-45.1829315972978,170.9048670567548</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-45.18321246795409,170.90397200785148</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>-45.18361267180912,170.90320812963913</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>-45.18407086749962,170.90254780362892</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>-45.18456602289131,170.9019569656924</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>-45.185072802868405,170.9013779336936</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>-45.18562401202829,170.90089180898119</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>-45.186203561447584,170.9005074587569</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>-45.186779464271986,170.90015781532128</t>
+        </is>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>-45.18736079888147,170.89980027099676</t>
+        </is>
+      </c>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>-45.187941441833615,170.89941698555722</t>
+        </is>
+      </c>
+      <c r="N613" t="inlineStr">
+        <is>
+          <t>-45.188554060330986,170.89908733449616</t>
+        </is>
+      </c>
+      <c r="O613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-45.18293414935906,170.90581022127213</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-45.182930983442446,170.90486685697513</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-45.18321030062039,170.9039704551445</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-45.18357414925559,170.90316487046832</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>-45.184052380133025,170.90252192402934</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>-45.18455969161262,170.90194642796615</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>-45.185080811185806,170.9013947509981</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>-45.185608623904365,170.90085299855326</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>-45.186194608181026,170.90048304949164</t>
+        </is>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>-45.18679674507928,170.90020071694022</t>
+        </is>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>-45.18736875056376,170.8998182390158</t>
+        </is>
+      </c>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>-45.18797270041327,170.89955381872943</t>
+        </is>
+      </c>
+      <c r="N614" t="inlineStr">
+        <is>
+          <t>-45.188560665247564,170.89922687493774</t>
+        </is>
+      </c>
+      <c r="O614" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0476/nzd0476.xlsx
+++ b/data/nzd0476/nzd0476.xlsx
@@ -35230,10 +35230,10 @@
         <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0464</v>
+        <v>0.0552</v>
       </c>
       <c r="I2" t="n">
         <v>0.2901908340710621</v>
@@ -35305,13 +35305,13 @@
         <v>0.08329258980495674</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0459</v>
+        <v>0.0418</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0585</v>
+        <v>0.078</v>
       </c>
       <c r="I3" t="n">
         <v>-0.02499120321046515</v>
@@ -35383,13 +35383,13 @@
         <v>0.1668118182066021</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0483</v>
+        <v>0.0556</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0519</v>
+        <v>0.1702</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1705114719884548</v>
@@ -35461,13 +35461,13 @@
         <v>0.2498109352356332</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.125</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0568</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1882431049170334</v>
@@ -35539,13 +35539,13 @@
         <v>0.3332705250980944</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0499</v>
+        <v>0.0718</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0579</v>
+        <v>0.1673</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2123829536696936</v>
@@ -35620,10 +35620,10 @@
         <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.055</v>
+        <v>0.0468</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.0905</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1818502627236068</v>
@@ -35695,13 +35695,13 @@
         <v>0.4999792534995723</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0554</v>
+        <v>0.0741</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0641</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2138121691000299</v>
@@ -35773,13 +35773,13 @@
         <v>0.5835631403521372</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0544</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.063</v>
+        <v>0.1008</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1899904572093004</v>
@@ -35851,13 +35851,13 @@
         <v>0.6670610807294397</v>
       </c>
       <c r="F10" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.052</v>
+        <v>0.0591</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0619</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>-0.2154950787042361</v>
@@ -35929,13 +35929,13 @@
         <v>0.750427130594298</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0369</v>
+        <v>0.0603</v>
       </c>
       <c r="H11" t="n">
-        <v>0.042</v>
+        <v>0.1844</v>
       </c>
       <c r="I11" t="n">
         <v>-0.1643985604085402</v>
@@ -36007,13 +36007,13 @@
         <v>0.8340444723333156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0331</v>
+        <v>0.0365</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0365</v>
+        <v>0.0738</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1187905255334038</v>
@@ -36085,13 +36085,13 @@
         <v>0.917618957248523</v>
       </c>
       <c r="F13" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0211</v>
+        <v>0.0294</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0317</v>
+        <v>0.0541</v>
       </c>
       <c r="I13" t="n">
         <v>0.1194796235671373</v>
@@ -36163,13 +36163,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0245</v>
+        <v>0.0285</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0312</v>
+        <v>0.0446</v>
       </c>
       <c r="I14" t="n">
         <v>0.3574645791398315</v>
